--- a/Input Data/DevTesting/DevTesting_IC.dry.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.dry.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabaker\Projects\Models\MTOM\MTOM_Dir\DevTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabaker\Projects\Models\MTOM\MTOM_Dir\Input Data\DevTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoirs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="49">
   <si>
     <t>NaN</t>
   </si>
@@ -504,11 +504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z412"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4901,91 +4901,280 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>1506574</v>
+      </c>
+      <c r="V63">
+        <v>578128</v>
+      </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>0</v>
+      </c>
+      <c r="R64" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>1514640</v>
+      </c>
+      <c r="V64">
+        <v>572091</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>1584553</v>
+      </c>
+      <c r="V65">
+        <v>560127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -11670,7 +11859,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M27"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12887,7 +13076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z570"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>

--- a/Input Data/DevTesting/DevTesting_IC.dry.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.dry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoirs" sheetId="1" r:id="rId1"/>
@@ -504,11 +504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +589,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B2">
         <v>7504.92</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B3">
         <v>7496.5</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B4">
         <v>7495</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B5">
         <v>7490</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B6">
         <v>7487</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B7">
         <v>7485</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B8">
         <v>7484.5</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B9">
         <v>7485.86</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B10">
         <v>7480.34</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B11">
         <v>7469.42</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B12">
         <v>7458.65</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B13">
         <v>7449.31</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B14">
         <v>7442.86</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B15">
         <v>7438.84</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B16">
         <v>7438.51</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B17">
         <v>7437.59</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B18">
         <v>7435.73</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B19">
         <v>7434.25</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B20">
         <v>7434.25</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B21">
         <v>7431.55</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B22">
         <v>7445.17</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B23">
         <v>7447.42</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B24">
         <v>7436.45</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B25">
         <v>7432</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B26">
         <v>7435.38</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
-        <v>44866</v>
+        <v>45231</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
-        <v>44896</v>
+        <v>45261</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
@@ -11747,7 +11747,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11781,7 +11781,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -11804,7 +11804,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -11827,7 +11827,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -11859,7 +11859,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11911,7 +11911,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B2" s="1">
         <v>34968.69</v>
@@ -11952,7 +11952,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B3" s="1">
         <v>35759.49</v>
@@ -11993,7 +11993,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B4" s="1">
         <v>28591.05</v>
@@ -12034,7 +12034,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B5" s="1">
         <v>24381.759999999998</v>
@@ -12075,7 +12075,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B6" s="1">
         <v>22281.759999999998</v>
@@ -12116,7 +12116,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B7" s="1">
         <v>21239.93</v>
@@ -12157,7 +12157,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B8" s="1">
         <v>40427.46</v>
@@ -12198,7 +12198,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B9" s="1">
         <v>57201.21</v>
@@ -12239,7 +12239,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B10" s="1">
         <v>74254.649999999994</v>
@@ -12280,7 +12280,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B11" s="1">
         <v>44608.53</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B12" s="1">
         <v>30380.59</v>
@@ -12362,7 +12362,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B13" s="1">
         <v>28193.7</v>
@@ -12403,7 +12403,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B14" s="1">
         <v>19182.39</v>
@@ -12444,7 +12444,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B15" s="1">
         <v>20420.419999999998</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B16" s="1">
         <v>18791.330000000002</v>
@@ -12526,7 +12526,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B17" s="1">
         <v>17689.55</v>
@@ -12567,7 +12567,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B18" s="1">
         <v>15854.32</v>
@@ -12608,7 +12608,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B19" s="1">
         <v>15785.12</v>
@@ -12649,7 +12649,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B20" s="1">
         <v>23170.2</v>
@@ -12690,7 +12690,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B21" s="1">
         <v>43070.62</v>
@@ -12731,7 +12731,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B22" s="1">
         <v>132989.70000000001</v>
@@ -12772,7 +12772,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B23" s="1">
         <v>126011.7</v>
@@ -12813,7 +12813,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B24" s="1">
         <v>44461.97</v>
@@ -12854,7 +12854,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B25" s="1">
         <v>45877.94</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B26" s="1">
         <v>56574.26</v>
@@ -12936,7 +12936,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B27" s="1">
         <v>48231.37</v>
@@ -13076,8 +13076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z570"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13121,7 +13121,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B2" s="1">
         <v>-5972.1</v>
@@ -13164,7 +13164,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B3" s="1">
         <v>7133.3</v>
@@ -13211,7 +13211,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B4" s="1">
         <v>-11260.49</v>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B5" s="1">
         <v>-28044.78</v>
@@ -13297,7 +13297,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B6" s="1">
         <v>-23203.66</v>
@@ -13340,7 +13340,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B7" s="1">
         <v>-18090.96</v>
@@ -13383,7 +13383,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B8" s="1">
         <v>-22812.71</v>
@@ -13426,7 +13426,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B9" s="1">
         <v>-23695.68</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B10" s="1">
         <v>-14131.06</v>
@@ -13512,7 +13512,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B11" s="1">
         <v>-18979.650000000001</v>
@@ -13555,7 +13555,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B12" s="1">
         <v>-8886.49</v>
@@ -13598,7 +13598,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B13" s="1">
         <v>-10645.9</v>
@@ -13641,7 +13641,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B14" s="1">
         <v>-4762.54</v>
@@ -13684,7 +13684,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B15" s="1">
         <v>-3075.73</v>
@@ -13731,7 +13731,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B16" s="1">
         <v>-11409.68</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B17" s="1">
         <v>-6389.24</v>
@@ -13817,7 +13817,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B18" s="1">
         <v>-11244.42</v>
@@ -13859,7 +13859,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B19" s="1">
         <v>-11609.11</v>
@@ -13902,7 +13902,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B20" s="1">
         <v>-10646.89</v>
@@ -13945,7 +13945,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B21" s="1">
         <v>-19992.5</v>
@@ -13988,7 +13988,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B22" s="1">
         <v>-15347.74</v>
@@ -14032,7 +14032,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B23" s="1">
         <v>-16179.09</v>
@@ -14076,7 +14076,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B24" s="1">
         <v>-23987.86</v>
@@ -14120,7 +14120,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B25" s="1">
         <v>-16427.38</v>
@@ -14164,7 +14164,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B26" s="1">
         <v>-11291.31</v>
@@ -14208,7 +14208,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B27" s="1">
         <v>-12591.95</v>
@@ -14256,7 +14256,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="B28" s="1">
         <v>3962.03</v>
@@ -14300,7 +14300,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="B29" s="1">
         <v>-9899.61</v>
@@ -14344,7 +14344,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B30" s="1">
         <v>-7219.96</v>
@@ -14388,7 +14388,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="B31" s="1">
         <v>-21630.13</v>
@@ -14432,7 +14432,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="B32" s="1">
         <v>-11784.01</v>
@@ -14476,7 +14476,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="B33" s="1">
         <v>-21491.86</v>
@@ -14520,7 +14520,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="B34" s="1">
         <v>-17046.14</v>
@@ -14564,7 +14564,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="B35" s="1">
         <v>-19310.96</v>
@@ -14608,7 +14608,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="B36" s="1">
         <v>-9775.31</v>
@@ -14652,7 +14652,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="B37" s="1">
         <v>-6121.14</v>
@@ -14696,7 +14696,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="B38" s="1">
         <v>-5894.69</v>
@@ -14740,7 +14740,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="B39" s="1">
         <v>9566.43</v>
@@ -14788,7 +14788,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="B40" s="1">
         <v>-5666.19</v>
@@ -14832,7 +14832,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="1">
         <v>-1670.61</v>
@@ -14876,7 +14876,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B42" s="1">
         <v>-21864.400000000001</v>
@@ -14920,7 +14920,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="1">
         <v>-7545.24</v>
@@ -14964,7 +14964,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="B44" s="1">
         <v>-21530.83</v>
@@ -15008,7 +15008,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="B45" s="1">
         <v>-18509.3</v>
@@ -15052,7 +15052,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="B46" s="1">
         <v>-10435.120000000001</v>
@@ -15096,7 +15096,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="B47" s="1">
         <v>-18403.490000000002</v>
@@ -15140,7 +15140,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="B48" s="1">
         <v>-13568.73</v>
@@ -15184,7 +15184,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="B49" s="1">
         <v>-16631.419999999998</v>
@@ -15228,7 +15228,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="B50" s="1">
         <v>-16038.95</v>
@@ -15272,7 +15272,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="B51" s="1">
         <v>-7345.29</v>
@@ -15319,7 +15319,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="B52" s="1">
         <v>-13474.74</v>
@@ -15362,7 +15362,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="B53" s="1">
         <v>-12944.09</v>
@@ -15405,7 +15405,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="B54" s="1">
         <v>-31790.57</v>
@@ -15448,7 +15448,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="B55" s="1">
         <v>-20499.46</v>
@@ -15492,7 +15492,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="B56" s="1">
         <v>-15448.75</v>
@@ -15536,7 +15536,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B57" s="1">
         <v>-17709.400000000001</v>
@@ -15580,7 +15580,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="B58" s="1">
         <v>-5794.55</v>
@@ -15624,7 +15624,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B59" s="1">
         <v>-15855.95</v>
@@ -15668,7 +15668,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="B60" s="1">
         <v>-23911.19</v>
@@ -15712,7 +15712,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B61" s="1">
         <v>-11929.89</v>
@@ -15756,7 +15756,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B62" s="1">
         <v>-17913.939999999999</v>

--- a/Input Data/DevTesting/DevTesting_IC.dry.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.dry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoirs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="49">
   <si>
     <t>NaN</t>
   </si>
@@ -508,7 +508,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11744,10 +11744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11846,6 +11846,29 @@
       </c>
       <c r="G4">
         <v>962.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>44197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3427</v>
+      </c>
+      <c r="G5">
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -13076,7 +13099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z570"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L25" sqref="L25:L26"/>
     </sheetView>
   </sheetViews>

--- a/Input Data/DevTesting/DevTesting_IC.dry.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.dry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoirs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="49">
   <si>
     <t>NaN</t>
   </si>
@@ -504,11 +504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11746,8 +11746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11809,8 +11809,8 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -11832,8 +11832,8 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -11855,8 +11855,8 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -13100,7 +13100,7 @@
   <dimension ref="A1:Z570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25:L26"/>
+      <selection activeCell="B33" sqref="B33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Input Data/DevTesting/DevTesting_IC.dry.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.dry.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="49">
   <si>
     <t>NaN</t>
   </si>
@@ -505,10 +505,10 @@
   <dimension ref="A1:Z412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11747,7 +11747,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11838,8 +11838,8 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>0</v>
+      <c r="E4">
+        <v>8232000</v>
       </c>
       <c r="F4">
         <v>3416.72</v>

--- a/Input Data/DevTesting/DevTesting_IC.dry.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.dry.xlsx
@@ -1,184 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saba3704\Documents\MTOM_Dir\Input Data\DevTesting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBDC7D1-2A10-4D53-8CCE-C23E00E112EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="29355" yWindow="645" windowWidth="28215" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Reservoirs" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CoordinatedOps" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ForecastLocations" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="InterveningFlow" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Reservoirs" sheetId="1" r:id="rId1"/>
+    <sheet name="CoordinatedOps" sheetId="2" r:id="rId2"/>
+    <sheet name="ForecastLocations" sheetId="3" r:id="rId3"/>
+    <sheet name="InterveningFlow" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="52">
   <si>
-    <t xml:space="preserve">Date</t>
+    <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">BlueMesa.Pool Elevation</t>
+    <t>BlueMesa.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">Crystal.Pool Elevation</t>
+    <t>Crystal.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">FlamingGorge.Pool Elevation</t>
+    <t>FlamingGorge.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">Fontenelle.Pool Elevation</t>
+    <t>Fontenelle.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">Havasu.Pool Elevation</t>
+    <t>Havasu.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">Mead.Pool Elevation</t>
+    <t>Mead.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">Mohave.Pool Elevation</t>
+    <t>Mohave.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">MorrowPoint.Pool Elevation</t>
+    <t>MorrowPoint.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">Navajo.Pool Elevation</t>
+    <t>Navajo.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">Powell.Pool Elevation</t>
+    <t>Powell.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">TaylorPark.Pool Elevation</t>
+    <t>TaylorPark.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">Vallecito.Pool Elevation</t>
+    <t>Vallecito.Pool Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">BlueMesa.Outflow</t>
+    <t>BlueMesa.Outflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Fontenelle.Inflow</t>
+    <t>Fontenelle.Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Fontenelle.Outflow</t>
+    <t>Fontenelle.Outflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Mead.Inflow</t>
+    <t>Mead.Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Mead.Outflow</t>
+    <t>Mead.Outflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Powell.Outflow</t>
+    <t>Powell.Outflow</t>
   </si>
   <si>
-    <t xml:space="preserve">HavasuOutflow.BHOPSParkerOutflow</t>
+    <t>HavasuOutflow.BHOPSParkerOutflow</t>
   </si>
   <si>
-    <t xml:space="preserve">LBRuleCurveData.Mohave Target Storage</t>
+    <t>LBRuleCurveData.Mohave Target Storage</t>
   </si>
   <si>
-    <t xml:space="preserve">LBRuleCurveData.Havasu Target Storage</t>
+    <t>LBRuleCurveData.Havasu Target Storage</t>
   </si>
   <si>
-    <t xml:space="preserve">X23</t>
+    <t>X23</t>
   </si>
   <si>
-    <t xml:space="preserve">X24</t>
+    <t>X24</t>
   </si>
   <si>
-    <t xml:space="preserve">X25</t>
+    <t>X25</t>
   </si>
   <si>
-    <t xml:space="preserve">NaN</t>
+    <t>NaN</t>
   </si>
   <si>
-    <t xml:space="preserve">MTOMRunType.UpperElevBalBranch_Input</t>
+    <t>MTOMRunType.UpperElevBalBranch_Input</t>
   </si>
   <si>
-    <t xml:space="preserve">MTOMRunType.ReleaseTier_Input</t>
+    <t>MTOMRunType.ReleaseTier_Input</t>
   </si>
   <si>
-    <t xml:space="preserve">MTOMRunType.CarryoverVolume_Input</t>
+    <t>MTOMRunType.CarryoverVolume_Input</t>
   </si>
   <si>
-    <t xml:space="preserve">MTOMRunType.TargetAnnualReleaseVolume_Input</t>
+    <t>MTOMRunType.TargetAnnualReleaseVolume_Input</t>
   </si>
   <si>
-    <t xml:space="preserve">MTOMRunType.AugEOYPowellPEProjection_Input</t>
+    <t>MTOMRunType.AugEOYPowellPEProjection_Input</t>
   </si>
   <si>
-    <t xml:space="preserve">MTOMRunType.AugEOYMeadPEProjection_Input</t>
+    <t>MTOMRunType.AugEOYMeadPEProjection_Input</t>
   </si>
   <si>
-    <t xml:space="preserve">BlueMesaInflow.Unregulated</t>
+    <t>BlueMesaInflow.Unregulated</t>
   </si>
   <si>
-    <t xml:space="preserve">CrystalInflow.Unregulated</t>
+    <t>CrystalInflow.Unregulated</t>
   </si>
   <si>
-    <t xml:space="preserve">FlamingGorgeInflow.Unregulated</t>
+    <t>FlamingGorgeInflow.Unregulated</t>
   </si>
   <si>
-    <t xml:space="preserve">AnimasRiverInflow.Animas_at_Durango</t>
+    <t>AnimasRiverInflow.Animas_at_Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">GainsCrystalToGJ.GainsCrystalToGJ</t>
+    <t>GainsCrystalToGJ.GainsCrystalToGJ</t>
   </si>
   <si>
-    <t xml:space="preserve">MorrowPointInflow.Unregulated</t>
+    <t>MorrowPointInflow.Unregulated</t>
   </si>
   <si>
-    <t xml:space="preserve">NavajoInflow.ModUnregulated</t>
+    <t>NavajoInflow.ModUnregulated</t>
   </si>
   <si>
-    <t xml:space="preserve">PowellInflow.Unregulated</t>
+    <t>PowellInflow.Unregulated</t>
   </si>
   <si>
-    <t xml:space="preserve">TaylorPark.Inflow</t>
+    <t>TaylorPark.Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Vallecito.Inflow</t>
+    <t>Vallecito.Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">YampaRiverInflow.Yampa_at_Deerlodge</t>
+    <t>YampaRiverInflow.Yampa_at_Deerlodge</t>
   </si>
   <si>
-    <t xml:space="preserve">CoRivMeadToMohave:GainsAboveDavis.Local Inflow</t>
+    <t>CoRivMeadToMohave:GainsAboveDavis.Local Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">PowellToMead:GainsAboveHoover.Local Inflow</t>
+    <t>PowellToMead:GainsAboveHoover.Local Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">MWDAndCAPReach:GainsAboveParker.Local Inflow</t>
+    <t>MWDAndCAPReach:GainsAboveParker.Local Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">PowellToMead:GainsGrandCanyon.Local Inflow</t>
+    <t>PowellToMead:GainsGrandCanyon.Local Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">BelowImperialDam:GainsImpToNIB.Local Inflow</t>
+    <t>BelowImperialDam:GainsImpToNIB.Local Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">PowellToMead:LeesFerryGage.Local Inflow</t>
+    <t>PowellToMead:LeesFerryGage.Local Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">HavasuToImperial:GainsPkrToImp.Local Inflow</t>
+    <t>HavasuToImperial:GainsPkrToImp.Local Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">BelowImperialDam:Gila River.Local Inflow</t>
+    <t>BelowImperialDam:Gila River.Local Inflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Annual Volume</t>
+    <t>Annual Volume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -212,14 +222,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -501,14 +521,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,71 +613,71 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>43709</v>
       </c>
-      <c r="B2" t="n">
-        <v>7504.92</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>7420.85</v>
+      </c>
+      <c r="C2">
         <v>6753.04</v>
       </c>
-      <c r="D2" t="n">
-        <v>6019.57</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6501.16</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2">
+        <v>5859.57</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6442.5200100000002</v>
+      </c>
+      <c r="F2">
         <v>447.25</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1002.08</v>
       </c>
-      <c r="H2" t="n">
-        <v>636.42</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>636.41999999999996</v>
+      </c>
+      <c r="I2">
         <v>7153.73</v>
       </c>
-      <c r="J2" t="n">
-        <v>6068.56</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3547.19</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9313</v>
-      </c>
-      <c r="M2" t="n">
-        <v>7615.46</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="J2">
+        <v>5959.45</v>
+      </c>
+      <c r="K2">
+        <v>3487.19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>9244.2998000000007</v>
+      </c>
+      <c r="M2">
+        <v>7614.82</v>
+      </c>
+      <c r="N2">
         <v>108451.16</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>49002.55</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>66141.16</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>921987</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>669806.12</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>921987.2</v>
       </c>
       <c r="T2" t="s">
         <v>25</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>1610088</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>585720</v>
       </c>
       <c r="W2" t="s">
@@ -662,71 +690,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43739</v>
       </c>
-      <c r="B3" t="n">
-        <v>7496.5</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>7417.73</v>
+      </c>
+      <c r="C3">
         <v>6753.04</v>
       </c>
-      <c r="D3" t="n">
-        <v>6020.42</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6498.04</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="D3">
+        <v>5860.42</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6442.4101499999997</v>
+      </c>
+      <c r="F3">
         <v>448.38</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1005.19</v>
       </c>
-      <c r="H3" t="n">
-        <v>629.58</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>629.58000000000004</v>
+      </c>
+      <c r="I3">
         <v>7153.73</v>
       </c>
-      <c r="J3" t="n">
-        <v>6070.68</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3545.78</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9310.85</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7617.67</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="J3">
+        <v>5956.5</v>
+      </c>
+      <c r="K3">
+        <v>3485.78</v>
+      </c>
+      <c r="L3" s="2">
+        <v>9231</v>
+      </c>
+      <c r="M3">
+        <v>7613.58007</v>
+      </c>
+      <c r="N3">
         <v>92920.58</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>50327.7</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>73844.05</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>956084</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>443480.5</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>956084.03</v>
       </c>
       <c r="T3" t="s">
         <v>25</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>1435234</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>579826</v>
       </c>
       <c r="W3" t="s">
@@ -739,71 +767,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>43770</v>
       </c>
-      <c r="B4" t="n">
-        <v>7495</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>7416.79</v>
+      </c>
+      <c r="C4">
         <v>6753.04</v>
       </c>
-      <c r="D4" t="n">
-        <v>6021.17</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6493.53</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="D4">
+        <v>5861.17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6442.1499000000003</v>
+      </c>
+      <c r="F4">
         <v>445.93</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1006.46</v>
       </c>
-      <c r="H4" t="n">
-        <v>634.44</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>634.44000000000005</v>
+      </c>
+      <c r="I4">
         <v>7153.73</v>
       </c>
-      <c r="J4" t="n">
-        <v>6071.46</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3543.34</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9310</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7621.51</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="J4">
+        <v>5956.73</v>
+      </c>
+      <c r="K4">
+        <v>3483.34</v>
+      </c>
+      <c r="L4" s="2">
+        <v>9233.2999999999993</v>
+      </c>
+      <c r="M4">
+        <v>7611.6298800000004</v>
+      </c>
+      <c r="N4">
         <v>37139.83</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>45847.01</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>71339.83</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>1099179</v>
       </c>
-      <c r="R4" t="n">
-        <v>564214.05</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="R4">
+        <v>564214.05000000005</v>
+      </c>
+      <c r="S4">
         <v>1099178.99</v>
       </c>
       <c r="T4" t="s">
         <v>25</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>1511512</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>567593</v>
       </c>
       <c r="W4" t="s">
@@ -816,71 +844,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>43800</v>
       </c>
-      <c r="B5" t="n">
-        <v>7490</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5">
+        <v>7414.91</v>
+      </c>
+      <c r="C5">
         <v>6753.04</v>
       </c>
-      <c r="D5" t="n">
-        <v>6021.44</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6486.74</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5">
+        <v>5861.44</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6442.1098599999996</v>
+      </c>
+      <c r="F5">
         <v>446.26</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1009.8</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>639.66</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>7153.73</v>
       </c>
-      <c r="J5" t="n">
-        <v>6071.37</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3538.52</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9309</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7623.75</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="J5">
+        <v>5956.36</v>
+      </c>
+      <c r="K5">
+        <v>3478.52</v>
+      </c>
+      <c r="L5" s="2">
+        <v>9235.2000000000007</v>
+      </c>
+      <c r="M5">
+        <v>7611.2797799999998</v>
+      </c>
+      <c r="N5">
         <v>87347.27</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>34683.18</v>
       </c>
-      <c r="P5" t="n">
-        <v>73874.88</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P5">
+        <v>73874.880000000005</v>
+      </c>
+      <c r="Q5">
         <v>1223368</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>496689.59</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>1223367.76</v>
       </c>
       <c r="T5" t="s">
         <v>25</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>1585878</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>537515</v>
       </c>
       <c r="W5" t="s">
@@ -893,71 +921,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>43831</v>
       </c>
-      <c r="B6" t="n">
-        <v>7487</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>7412.52</v>
+      </c>
+      <c r="C6">
         <v>6753.04</v>
       </c>
-      <c r="D6" t="n">
-        <v>6021.82</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6478.86</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6">
+        <v>5861.82</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6441.75</v>
+      </c>
+      <c r="F6">
         <v>446.74</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1012.14</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>642.26</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>7153.73</v>
       </c>
-      <c r="J6" t="n">
-        <v>6071.23</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3533.13</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9308</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7625.51</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="J6">
+        <v>5955.94</v>
+      </c>
+      <c r="K6">
+        <v>3473.13</v>
+      </c>
+      <c r="L6" s="2">
+        <v>9236.4</v>
+      </c>
+      <c r="M6">
+        <v>7610.9799800000001</v>
+      </c>
+      <c r="N6">
         <v>51894.96</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>31940.27</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>73887.19</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>851864</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>712824.71</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>851863.99</v>
       </c>
       <c r="T6" t="s">
         <v>25</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>1627738</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>554381</v>
       </c>
       <c r="W6" t="s">
@@ -970,71 +998,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>43862</v>
       </c>
-      <c r="B7" t="n">
-        <v>7485</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>7401.65</v>
+      </c>
+      <c r="C7">
         <v>6753.04</v>
       </c>
-      <c r="D7" t="n">
-        <v>6022.08</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6470.27</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D7">
+        <v>5862.08</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6442.1201099999998</v>
+      </c>
+      <c r="F7">
         <v>448.67</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1011.75</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>641.48</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>7153.73</v>
       </c>
-      <c r="J7" t="n">
-        <v>6070.91</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3528.66</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9307</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7627.06</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="J7">
+        <v>5956.45</v>
+      </c>
+      <c r="K7">
+        <v>3468.66</v>
+      </c>
+      <c r="L7" s="2">
+        <v>9237.2999999999993</v>
+      </c>
+      <c r="M7">
+        <v>7610.8999000000003</v>
+      </c>
+      <c r="N7">
         <v>33521.49</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>30265.5</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>68790.58</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>652572</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>775492.15</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>652572.41</v>
       </c>
       <c r="T7" t="s">
         <v>25</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>1649857</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>563480</v>
       </c>
       <c r="W7" t="s">
@@ -1047,71 +1075,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>43891</v>
       </c>
-      <c r="B8" t="n">
-        <v>7484.5</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>7391.75</v>
+      </c>
+      <c r="C8">
         <v>6753.04</v>
       </c>
-      <c r="D8" t="n">
-        <v>6023.57</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6468.33</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="D8">
+        <v>5863.57</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6443.5698199999997</v>
+      </c>
+      <c r="F8">
         <v>448.25</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1009.02</v>
       </c>
-      <c r="H8" t="n">
-        <v>643.43</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>643.42999999999995</v>
+      </c>
+      <c r="I8">
         <v>7153.73</v>
       </c>
-      <c r="J8" t="n">
-        <v>6074.69</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3526.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9305.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7625.48</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="J8">
+        <v>5965.51</v>
+      </c>
+      <c r="K8">
+        <v>3466.3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>9238</v>
+      </c>
+      <c r="M8">
+        <v>7611.1601499999997</v>
+      </c>
+      <c r="N8">
         <v>32402.48</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>64413.55</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>67185.87</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>600015</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>986079.83</v>
       </c>
-      <c r="S8" t="n">
-        <v>600014.8</v>
+      <c r="S8">
+        <v>600014.80000000005</v>
       </c>
       <c r="T8" t="s">
         <v>25</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>1669585</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>565911</v>
       </c>
       <c r="W8" t="s">
@@ -1124,71 +1152,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>43922</v>
       </c>
-      <c r="B9" t="n">
-        <v>7485.86</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>7395.58</v>
+      </c>
+      <c r="C9">
         <v>6753.04</v>
       </c>
-      <c r="D9" t="n">
-        <v>6025.41</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6477.33</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D9">
+        <v>5865.41</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6440.5497999999998</v>
+      </c>
+      <c r="F9">
         <v>448.72</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1003.71</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>644.27</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>7153.73</v>
       </c>
-      <c r="J9" t="n">
-        <v>6082.29</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3527.33</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9305.9</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7626.27</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="J9">
+        <v>5975.33</v>
+      </c>
+      <c r="K9">
+        <v>3467.33</v>
+      </c>
+      <c r="L9" s="2">
+        <v>9239.7000000000007</v>
+      </c>
+      <c r="M9">
+        <v>7612.9101499999997</v>
+      </c>
+      <c r="N9">
         <v>57894.3</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>97783.64</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>59553.39</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>606337</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>1169713.47</v>
       </c>
-      <c r="S9" t="n">
-        <v>606337.32</v>
+      <c r="S9">
+        <v>606337.31999999995</v>
       </c>
       <c r="T9" t="s">
         <v>25</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>1708289</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>602023</v>
       </c>
       <c r="W9" t="s">
@@ -1201,71 +1229,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>43952</v>
       </c>
-      <c r="B10" t="n">
-        <v>7480.34</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>7423.83</v>
+      </c>
+      <c r="C10">
         <v>6753.04</v>
       </c>
-      <c r="D10" t="n">
-        <v>6023.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6486.74</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10">
+        <v>5863.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6441.7797799999998</v>
+      </c>
+      <c r="F10">
         <v>447.64</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>999.4</v>
       </c>
-      <c r="H10" t="n">
-        <v>642.3</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>642.29999999999995</v>
+      </c>
+      <c r="I10">
         <v>7153.73</v>
       </c>
-      <c r="J10" t="n">
-        <v>6084.06</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3525</v>
-      </c>
-      <c r="L10" t="n">
-        <v>9313.71</v>
-      </c>
-      <c r="M10" t="n">
-        <v>7654.14</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="J10">
+        <v>5987.58</v>
+      </c>
+      <c r="K10">
+        <v>3465</v>
+      </c>
+      <c r="L10" s="2">
+        <v>9256.4</v>
+      </c>
+      <c r="M10">
+        <v>7605.9902300000003</v>
+      </c>
+      <c r="N10">
         <v>70686.45</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>130217.17</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>61540.17</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>600919</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>1008395.8</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>600918.72</v>
       </c>
       <c r="T10" t="s">
         <v>25</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>1700348</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>595858</v>
       </c>
       <c r="W10" t="s">
@@ -1278,71 +1306,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>43983</v>
       </c>
-      <c r="B11" t="n">
-        <v>7469.42</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11">
+        <v>7458.93</v>
+      </c>
+      <c r="C11">
         <v>6753.04</v>
       </c>
-      <c r="D11" t="n">
-        <v>6022.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6500</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D11">
+        <v>5862.1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6441.1899400000002</v>
+      </c>
+      <c r="F11">
         <v>448.53</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>993.86</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>642.72</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>7153.73</v>
       </c>
-      <c r="J11" t="n">
-        <v>6073.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3519.07</v>
-      </c>
-      <c r="L11" t="n">
-        <v>9309.2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>7659.1</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="J11">
+        <v>5991.96</v>
+      </c>
+      <c r="K11">
+        <v>3459.07</v>
+      </c>
+      <c r="L11" s="2">
+        <v>9278.9</v>
+      </c>
+      <c r="M11">
+        <v>7597.4101499999997</v>
+      </c>
+      <c r="N11">
         <v>92735.45</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>188763.85</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>98628.84</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>708596</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>989132.81</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>708595.83</v>
       </c>
       <c r="T11" t="s">
         <v>25</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>1693249</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>584769</v>
       </c>
       <c r="W11" t="s">
@@ -1355,1163 +1383,1163 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>44013</v>
       </c>
-      <c r="B12" t="n">
-        <v>7458.65</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12">
+        <v>7466.75</v>
+      </c>
+      <c r="C12">
         <v>6753.04</v>
       </c>
-      <c r="D12" t="n">
-        <v>6021.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6503.07</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="D12">
+        <v>5861.3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6441.6298800000004</v>
+      </c>
+      <c r="F12">
         <v>447.8</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>991.37</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>641.46</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>7153.73</v>
       </c>
-      <c r="J12" t="n">
-        <v>6063.41</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3509.33</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9311.03</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7651.59</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="J12">
+        <v>5988.39</v>
+      </c>
+      <c r="K12">
+        <v>3449.33</v>
+      </c>
+      <c r="L12" s="2">
+        <v>9280.5</v>
+      </c>
+      <c r="M12">
+        <v>7591.1801699999996</v>
+      </c>
+      <c r="N12">
         <v>89877.11</v>
       </c>
-      <c r="O12" t="n">
-        <v>91508.8</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="O12">
+        <v>91508.800000000003</v>
+      </c>
+      <c r="P12">
         <v>74602.48</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>885774</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>841497.98</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>885773.51</v>
       </c>
       <c r="T12" t="s">
         <v>25</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>1695704</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>597778</v>
       </c>
       <c r="W12" t="s">
         <v>25</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>2020</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>1988</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>44044</v>
       </c>
-      <c r="B13" t="n">
-        <v>7449.31</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13">
+        <v>7468.37</v>
+      </c>
+      <c r="C13">
         <v>6753.04</v>
       </c>
-      <c r="D13" t="n">
-        <v>6021.78</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6492.49</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="D13">
+        <v>5861.78</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6441.1499000000003</v>
+      </c>
+      <c r="F13">
         <v>448.08</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>991.77</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>641.89</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>7153.73</v>
       </c>
-      <c r="J13" t="n">
-        <v>6057.93</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3499.13</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9311.94</v>
-      </c>
-      <c r="M13" t="n">
-        <v>7646.14</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="J13">
+        <v>5982.11</v>
+      </c>
+      <c r="K13">
+        <v>3439.13</v>
+      </c>
+      <c r="L13" s="2">
+        <v>9278.2000000000007</v>
+      </c>
+      <c r="M13">
+        <v>7586.5</v>
+      </c>
+      <c r="N13">
         <v>79309.67</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>36319.83</v>
       </c>
-      <c r="P13" t="n">
-        <v>67712.07</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P13">
+        <v>67712.070000000007</v>
+      </c>
+      <c r="Q13">
         <v>800394</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>798237.85</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>800393.81</v>
       </c>
       <c r="T13" t="s">
         <v>25</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>1715969</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>587623</v>
       </c>
       <c r="W13" t="s">
         <v>25</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>2021</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>1989</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>44075</v>
       </c>
-      <c r="B14" t="n">
-        <v>7442.86</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14">
+        <v>7469.25</v>
+      </c>
+      <c r="C14">
         <v>6753.04</v>
       </c>
-      <c r="D14" t="n">
-        <v>6021.16</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6487.98</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="D14">
+        <v>5861.16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6442.5497999999998</v>
+      </c>
+      <c r="F14">
         <v>447.33</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>990.47</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>639.73</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>7153.73</v>
       </c>
-      <c r="J14" t="n">
-        <v>6056.24</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3491.79</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9312.77</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7634.69</v>
-      </c>
-      <c r="N14" t="n">
-        <v>67371.49</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="J14">
+        <v>5982.48</v>
+      </c>
+      <c r="K14">
+        <v>3431.79</v>
+      </c>
+      <c r="L14" s="2">
+        <v>9274.1</v>
+      </c>
+      <c r="M14">
+        <v>7586.4902300000003</v>
+      </c>
+      <c r="N14">
+        <v>67371.490000000005</v>
+      </c>
+      <c r="O14">
         <v>23235.96</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>54010.25</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>480841</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>635280.91</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>480840.85</v>
       </c>
       <c r="T14" t="s">
         <v>25</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>1605284</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>561239</v>
       </c>
       <c r="W14" t="s">
         <v>25</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>2022</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>1990</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>44105</v>
       </c>
-      <c r="B15" t="n">
-        <v>7438.84</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15">
+        <v>7467.45</v>
+      </c>
+      <c r="C15">
         <v>6753.04</v>
       </c>
-      <c r="D15" t="n">
-        <v>6020.58</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6484.56</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="D15">
+        <v>5860.58</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6444.3999000000003</v>
+      </c>
+      <c r="F15">
         <v>447.47</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>994.08</v>
       </c>
-      <c r="H15" t="n">
-        <v>634.57</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15">
+        <v>634.57000000000005</v>
+      </c>
+      <c r="I15">
         <v>7153.73</v>
       </c>
-      <c r="J15" t="n">
-        <v>6055.54</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3484.89</v>
-      </c>
-      <c r="L15" t="n">
-        <v>9310.85</v>
-      </c>
-      <c r="M15" t="n">
-        <v>7628.18</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="J15">
+        <v>5984.04</v>
+      </c>
+      <c r="K15">
+        <v>3424.89</v>
+      </c>
+      <c r="L15" s="2">
+        <v>9260.9003900000007</v>
+      </c>
+      <c r="M15">
+        <v>7589.2997999999998</v>
+      </c>
+      <c r="N15">
         <v>32968.26</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>28636.14</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>53034.46</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>498059</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>345526.45</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>498059.02</v>
       </c>
-      <c r="T15" t="n">
-        <v>483630.999999485</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="T15">
+        <v>483630.99999948498</v>
+      </c>
+      <c r="U15">
         <v>1377530</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>605508</v>
       </c>
       <c r="W15" t="s">
         <v>25</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>2023</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>1991</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>44136</v>
       </c>
-      <c r="B16" t="n">
-        <v>7438.51</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16">
+        <v>7462.16</v>
+      </c>
+      <c r="C16">
         <v>6753.04</v>
       </c>
-      <c r="D16" t="n">
-        <v>6020.29</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6482.5</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="D16">
+        <v>5860.29</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6448.0898399999996</v>
+      </c>
+      <c r="F16">
         <v>446.35</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>995.72</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>636.76</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>7153.73</v>
       </c>
-      <c r="J16" t="n">
-        <v>6054.85</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3477.66</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9310</v>
-      </c>
-      <c r="M16" t="n">
-        <v>7629.15</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="J16">
+        <v>5986.25</v>
+      </c>
+      <c r="K16">
+        <v>3417.66</v>
+      </c>
+      <c r="L16" s="2">
+        <v>9255.7001899999996</v>
+      </c>
+      <c r="M16">
+        <v>7592.0200100000002</v>
+      </c>
+      <c r="N16">
         <v>19422.98</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>34579.64</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>50551.16</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>729978</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>650483.97</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>729978.16</v>
       </c>
-      <c r="T16" t="n">
-        <v>357064.000000866</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="T16">
+        <v>357064.00000086601</v>
+      </c>
+      <c r="U16">
         <v>1507094</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>581534</v>
       </c>
       <c r="W16" t="s">
         <v>25</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>2024</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>1992</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>44166</v>
       </c>
-      <c r="B17" t="n">
-        <v>7437.59</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17">
+        <v>7453.32</v>
+      </c>
+      <c r="C17">
         <v>6753.04</v>
       </c>
-      <c r="D17" t="n">
-        <v>6019.58</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6479.35</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="D17">
+        <v>5859.58</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6448.9902300000003</v>
+      </c>
+      <c r="F17">
         <v>446.5</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>998.78</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>641.37</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>7153.73</v>
       </c>
-      <c r="J17" t="n">
-        <v>6053.84</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3467.32</v>
-      </c>
-      <c r="L17" t="n">
-        <v>9309</v>
-      </c>
-      <c r="M17" t="n">
-        <v>7629.98</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="J17">
+        <v>5988.28</v>
+      </c>
+      <c r="K17">
+        <v>3407.32</v>
+      </c>
+      <c r="L17" s="2">
+        <v>9255.7001899999996</v>
+      </c>
+      <c r="M17">
+        <v>7594.3701099999998</v>
+      </c>
+      <c r="N17">
         <v>16122.73</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>28302.32</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>52450.91</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>800945</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>475777.85</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>800945.11</v>
       </c>
-      <c r="T17" t="n">
-        <v>308724.999999714</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="T17">
+        <v>308724.99999971403</v>
+      </c>
+      <c r="U17">
         <v>1572110</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>550689</v>
       </c>
       <c r="W17" t="s">
         <v>25</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17">
         <v>2025</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17">
         <v>1993</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>44197</v>
       </c>
-      <c r="B18" t="n">
-        <v>7435.73</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18">
+        <v>7444.39</v>
+      </c>
+      <c r="C18">
         <v>6753.04</v>
       </c>
-      <c r="D18" t="n">
-        <v>6018.87</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6474.57</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="D18">
+        <v>5858.87</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6450</v>
+      </c>
+      <c r="F18">
         <v>446.37</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1000.83</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>642.09</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>7153.73</v>
       </c>
-      <c r="J18" t="n">
-        <v>6053.18</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3457.05</v>
-      </c>
-      <c r="L18" t="n">
-        <v>9308</v>
-      </c>
-      <c r="M18" t="n">
-        <v>7630.45</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="J18">
+        <v>5992</v>
+      </c>
+      <c r="K18">
+        <v>3397.05</v>
+      </c>
+      <c r="L18" s="2">
+        <v>9256</v>
+      </c>
+      <c r="M18">
+        <v>7596.6098599999996</v>
+      </c>
+      <c r="N18">
         <v>14990</v>
       </c>
-      <c r="O18" t="n">
-        <v>22878.64</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="O18">
+        <v>22878.639999999999</v>
+      </c>
+      <c r="P18">
         <v>52646.61</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>800838</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>608857.11</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>800838.02</v>
       </c>
-      <c r="T18" t="n">
-        <v>264926.000002143</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="T18">
+        <v>264926.00000214297</v>
+      </c>
+      <c r="U18">
         <v>1649857</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>580582</v>
       </c>
       <c r="W18" t="s">
         <v>25</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>2026</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>1994</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>44228</v>
       </c>
-      <c r="B19" t="n">
-        <v>7434.25</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19">
+        <v>7436.21</v>
+      </c>
+      <c r="C19">
         <v>6753.04</v>
       </c>
-      <c r="D19" t="n">
-        <v>6018.45</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6470.31</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="D19">
+        <v>5858.45</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6451</v>
+      </c>
+      <c r="F19">
         <v>446.97</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>999.62</v>
       </c>
-      <c r="H19" t="n">
-        <v>640.95</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19">
+        <v>640.95000000000005</v>
+      </c>
+      <c r="I19">
         <v>7153.73</v>
       </c>
-      <c r="J19" t="n">
-        <v>6052.05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3449.75</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9307</v>
-      </c>
-      <c r="M19" t="n">
-        <v>7631</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="J19">
+        <v>5999.16</v>
+      </c>
+      <c r="K19">
+        <v>3389.75</v>
+      </c>
+      <c r="L19" s="2">
+        <v>9256</v>
+      </c>
+      <c r="M19">
+        <v>7598.4301699999996</v>
+      </c>
+      <c r="N19">
         <v>14678.1</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>23122.37</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>47500.25</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>599801</v>
       </c>
-      <c r="R19" t="n">
-        <v>646349.67</v>
-      </c>
-      <c r="S19" t="n">
-        <v>599801.18</v>
-      </c>
-      <c r="T19" t="n">
-        <v>429686.999999095</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="R19">
+        <v>646349.67000000004</v>
+      </c>
+      <c r="S19">
+        <v>599801.18000000005</v>
+      </c>
+      <c r="T19">
+        <v>429686.99999909499</v>
+      </c>
+      <c r="U19">
         <v>1665525</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>582866</v>
       </c>
       <c r="W19" t="s">
         <v>25</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>2027</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>1995</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>44256</v>
       </c>
-      <c r="B20" t="n">
-        <v>7434.25</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20">
+        <v>7431.52</v>
+      </c>
+      <c r="C20">
         <v>6753.04</v>
       </c>
-      <c r="D20" t="n">
-        <v>6018.72</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6468.37</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="D20">
+        <v>5858.72</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6459.6401299999998</v>
+      </c>
+      <c r="F20">
         <v>448.53</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>996.26</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>643.37</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>7153.73</v>
       </c>
-      <c r="J20" t="n">
-        <v>6051.94</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3440.58</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9305.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>7631.66</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="J20">
+        <v>6006.24</v>
+      </c>
+      <c r="K20">
+        <v>3380.58</v>
+      </c>
+      <c r="L20" s="2">
+        <v>9255.9003900000007</v>
+      </c>
+      <c r="M20">
+        <v>7602.06005</v>
+      </c>
+      <c r="N20">
         <v>15739.67</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>40764.92</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>52403.64</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>601200</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>987073.88</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>601199.62</v>
       </c>
-      <c r="T20" t="n">
-        <v>704807.000000508</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="T20">
+        <v>704807.00000050804</v>
+      </c>
+      <c r="U20">
         <v>1673110</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>572468</v>
       </c>
       <c r="W20" t="s">
         <v>25</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>2028</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20">
         <v>1996</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>44287</v>
       </c>
-      <c r="B21" t="n">
-        <v>7431.55</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21">
+        <v>7429.88</v>
+      </c>
+      <c r="C21">
         <v>6753.04</v>
       </c>
-      <c r="D21" t="n">
-        <v>6018.92</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6470.69</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="D21">
+        <v>5858.92</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6461.8598599999996</v>
+      </c>
+      <c r="F21">
         <v>448.2</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>988.46</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>642.4</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>7153.73</v>
       </c>
-      <c r="J21" t="n">
-        <v>6052.87</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3433.61</v>
-      </c>
-      <c r="L21" t="n">
-        <v>9305.9</v>
-      </c>
-      <c r="M21" t="n">
-        <v>7634.87</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="J21">
+        <v>6024.14</v>
+      </c>
+      <c r="K21">
+        <v>3373.61</v>
+      </c>
+      <c r="L21" s="2">
+        <v>9258.5995999999996</v>
+      </c>
+      <c r="M21">
+        <v>7614.7402300000003</v>
+      </c>
+      <c r="N21">
         <v>38375.29</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>50615.15</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>50654.71</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>550907</v>
       </c>
-      <c r="R21" t="n">
-        <v>1103099.34</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="R21">
+        <v>1103099.3400000001</v>
+      </c>
+      <c r="S21">
         <v>550906.96</v>
       </c>
-      <c r="T21" t="n">
-        <v>727063.999998344</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="T21">
+        <v>727063.99999834399</v>
+      </c>
+      <c r="U21">
         <v>1722567</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>587053</v>
       </c>
       <c r="W21" t="s">
         <v>25</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21">
         <v>2029</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21">
         <v>1997</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>44317</v>
       </c>
-      <c r="B22" t="n">
-        <v>7445.17</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22">
+        <v>7447.53</v>
+      </c>
+      <c r="C22">
         <v>6753.04</v>
       </c>
-      <c r="D22" t="n">
-        <v>6018.09</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6481.62</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="D22">
+        <v>5858.09</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6467.6201099999998</v>
+      </c>
+      <c r="F22">
         <v>448.77</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>981</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>644.36</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>7153.73</v>
       </c>
-      <c r="J22" t="n">
-        <v>6056.95</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3442.01</v>
-      </c>
-      <c r="L22" t="n">
-        <v>9315</v>
-      </c>
-      <c r="M22" t="n">
-        <v>7624.21</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="J22">
+        <v>6034.99</v>
+      </c>
+      <c r="K22">
+        <v>3382.01</v>
+      </c>
+      <c r="L22" s="2">
+        <v>9272.2001899999996</v>
+      </c>
+      <c r="M22">
+        <v>7633.8701099999998</v>
+      </c>
+      <c r="N22">
         <v>57596.94</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>108378.85</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>50673.31</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>601526</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>1006651.24</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>601526.1</v>
       </c>
-      <c r="T22" t="n">
-        <v>692076.999947278</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="T22">
+        <v>692076.99994727795</v>
+      </c>
+      <c r="U22">
         <v>1732762</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22">
         <v>594898</v>
       </c>
       <c r="W22" t="s">
         <v>25</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22">
         <v>2030</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22">
         <v>1998</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>44348</v>
       </c>
-      <c r="B23" t="n">
-        <v>7447.42</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23">
+        <v>7478.28</v>
+      </c>
+      <c r="C23">
         <v>6753.04</v>
       </c>
-      <c r="D23" t="n">
-        <v>6017.09</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6485.92</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="D23">
+        <v>5857.09</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6494.7597599999999</v>
+      </c>
+      <c r="F23">
         <v>448.14</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>971.84</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>643.78</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>7153.73</v>
       </c>
-      <c r="J23" t="n">
-        <v>6045.54</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3441.91</v>
-      </c>
-      <c r="L23" t="n">
-        <v>9326.5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>7606.76</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="J23">
+        <v>6035.93</v>
+      </c>
+      <c r="K23">
+        <v>3381.91</v>
+      </c>
+      <c r="L23" s="2">
+        <v>9276.9003900000007</v>
+      </c>
+      <c r="M23">
+        <v>7646.7099600000001</v>
+      </c>
+      <c r="N23">
         <v>68942.64</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>91196.23</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>47998.18</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>799858</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>947681.4</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>799858.3</v>
       </c>
-      <c r="T23" t="n">
-        <v>714901.000000246</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="T23">
+        <v>714901.00000024599</v>
+      </c>
+      <c r="U23">
         <v>1711027</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23">
         <v>588956</v>
       </c>
       <c r="W23" t="s">
         <v>25</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23">
         <v>2031</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23">
         <v>1999</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>44378</v>
       </c>
-      <c r="B24" t="n">
-        <v>7436.45</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24">
+        <v>7478.2</v>
+      </c>
+      <c r="C24">
         <v>6753.04</v>
       </c>
-      <c r="D24" t="n">
-        <v>6016.02</v>
-      </c>
-      <c r="E24" t="n">
-        <v>6487.3</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="D24">
+        <v>5856.02</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6505.6298800000004</v>
+      </c>
+      <c r="F24">
         <v>447</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>965.09</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>642.87</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>7153.73</v>
       </c>
-      <c r="J24" t="n">
-        <v>6032.61</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3432.74</v>
-      </c>
-      <c r="L24" t="n">
-        <v>9325</v>
-      </c>
-      <c r="M24" t="n">
-        <v>7605.88</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="J24">
+        <v>6035.41</v>
+      </c>
+      <c r="K24">
+        <v>3372.74</v>
+      </c>
+      <c r="L24" s="2">
+        <v>9274.0995999999996</v>
+      </c>
+      <c r="M24">
+        <v>7637.6201099999998</v>
+      </c>
+      <c r="N24">
         <v>97942.15</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>67214.17</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>47975.79</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>847502</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>864869.17</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>847501.77</v>
       </c>
-      <c r="T24" t="n">
-        <v>674573.999999985</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="T24">
+        <v>674573.99999998498</v>
+      </c>
+      <c r="U24">
         <v>1716794</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V24">
         <v>590099</v>
       </c>
       <c r="W24" t="s">
         <v>25</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X24">
         <v>2032</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Y24">
         <v>2000</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>44409</v>
       </c>
-      <c r="B25" t="n">
-        <v>7432</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25">
+        <v>7475.16</v>
+      </c>
+      <c r="C25">
         <v>6753.04</v>
       </c>
-      <c r="D25" t="n">
-        <v>6016.82</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6472.03</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="D25">
+        <v>5856.82</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6503.2202100000004</v>
+      </c>
+      <c r="F25">
         <v>446.92</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>960.9</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>642.98</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>7153.73</v>
       </c>
-      <c r="J25" t="n">
-        <v>6029.42</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3423.97</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9319</v>
-      </c>
-      <c r="M25" t="n">
-        <v>7602.41</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="J25">
+        <v>6033.9</v>
+      </c>
+      <c r="K25">
+        <v>3373.97</v>
+      </c>
+      <c r="L25" s="2">
+        <v>9268.8603500000008</v>
+      </c>
+      <c r="M25">
+        <v>7623.06005</v>
+      </c>
+      <c r="N25">
         <v>89245.87</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>31540.93</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>43174.55</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>800964</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>807874.46</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>800964.44</v>
       </c>
-      <c r="T25" t="n">
-        <v>595143.000004243</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="T25">
+        <v>595143.00000424299</v>
+      </c>
+      <c r="U25">
         <v>1735797</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25">
         <v>603765</v>
       </c>
       <c r="W25" t="s">
         <v>25</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X25">
         <v>2033</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y25">
         <v>2001</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>44440</v>
       </c>
-      <c r="B26" t="n">
-        <v>7435.38</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26">
+        <v>7469.34</v>
+      </c>
+      <c r="C26">
         <v>6753.04</v>
       </c>
-      <c r="D26" t="n">
-        <v>6016.57</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6470.7</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="D26">
+        <v>5856.57</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6498.3500899999999</v>
+      </c>
+      <c r="F26">
         <v>447.2</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>956.96</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>638.47</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>7153.73</v>
       </c>
-      <c r="J26" t="n">
-        <v>6040.61</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3432.75</v>
-      </c>
-      <c r="L26" t="n">
-        <v>9313</v>
-      </c>
-      <c r="M26" t="n">
-        <v>7606.88</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="J26">
+        <v>6032.56</v>
+      </c>
+      <c r="K26">
+        <v>3372.75</v>
+      </c>
+      <c r="L26" s="2">
+        <v>9263</v>
+      </c>
+      <c r="M26">
+        <v>7608.1298800000004</v>
+      </c>
+      <c r="N26">
         <v>66253.47</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>47322.68</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>41770.74</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>600491</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>598691.24</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26">
         <v>600491.49</v>
       </c>
-      <c r="T26" t="n">
-        <v>505150.000030293</v>
-      </c>
-      <c r="U26" t="n">
+      <c r="T26">
+        <v>505150.00003029301</v>
+      </c>
+      <c r="U26">
         <v>1623615</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V26">
         <v>560869</v>
       </c>
       <c r="W26" t="s">
         <v>25</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X26">
         <v>2034</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y26">
         <v>2002</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>44470</v>
       </c>
       <c r="B27" t="s">
@@ -2520,9 +2548,6 @@
       <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
       <c r="E27" t="s">
         <v>25</v>
       </c>
@@ -2538,12 +2563,6 @@
       <c r="I27" t="s">
         <v>25</v>
       </c>
-      <c r="J27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" t="s">
-        <v>25</v>
-      </c>
       <c r="L27" t="s">
         <v>25</v>
       </c>
@@ -2571,24 +2590,24 @@
       <c r="T27" t="s">
         <v>25</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27">
         <v>1560495</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V27">
         <v>578694</v>
       </c>
       <c r="W27" t="s">
         <v>25</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X27">
         <v>2035</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Y27">
         <v>2003</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>44501</v>
       </c>
       <c r="B28" t="s">
@@ -2597,9 +2616,6 @@
       <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
       <c r="E28" t="s">
         <v>25</v>
       </c>
@@ -2615,12 +2631,6 @@
       <c r="I28" t="s">
         <v>25</v>
       </c>
-      <c r="J28" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" t="s">
-        <v>25</v>
-      </c>
       <c r="L28" t="s">
         <v>25</v>
       </c>
@@ -2648,24 +2658,24 @@
       <c r="T28" t="s">
         <v>25</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28">
         <v>1536582</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V28">
         <v>587433</v>
       </c>
       <c r="W28" t="s">
         <v>25</v>
       </c>
-      <c r="X28" t="n">
+      <c r="X28">
         <v>2036</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Y28">
         <v>2004</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>44531</v>
       </c>
       <c r="B29" t="s">
@@ -2674,9 +2684,6 @@
       <c r="C29" t="s">
         <v>25</v>
       </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
       <c r="E29" t="s">
         <v>25</v>
       </c>
@@ -2692,12 +2699,6 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
-      <c r="J29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" t="s">
-        <v>25</v>
-      </c>
       <c r="L29" t="s">
         <v>25</v>
       </c>
@@ -2725,24 +2726,24 @@
       <c r="T29" t="s">
         <v>25</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U29">
         <v>1605818</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V29">
         <v>531711</v>
       </c>
       <c r="W29" t="s">
         <v>25</v>
       </c>
-      <c r="X29" t="n">
+      <c r="X29">
         <v>2037</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Y29">
         <v>2005</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>44562</v>
       </c>
       <c r="B30" t="s">
@@ -2751,9 +2752,6 @@
       <c r="C30" t="s">
         <v>25</v>
       </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
       <c r="E30" t="s">
         <v>25</v>
       </c>
@@ -2769,12 +2767,6 @@
       <c r="I30" t="s">
         <v>25</v>
       </c>
-      <c r="J30" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" t="s">
-        <v>25</v>
-      </c>
       <c r="L30" t="s">
         <v>25</v>
       </c>
@@ -2802,24 +2794,24 @@
       <c r="T30" t="s">
         <v>25</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U30">
         <v>1642854</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V30">
         <v>547383</v>
       </c>
       <c r="W30" t="s">
         <v>25</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X30">
         <v>2038</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Y30">
         <v>2006</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>44593</v>
       </c>
       <c r="B31" t="s">
@@ -2828,9 +2820,6 @@
       <c r="C31" t="s">
         <v>25</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31" t="s">
         <v>25</v>
       </c>
@@ -2846,12 +2835,6 @@
       <c r="I31" t="s">
         <v>25</v>
       </c>
-      <c r="J31" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" t="s">
-        <v>25</v>
-      </c>
       <c r="L31" t="s">
         <v>25</v>
       </c>
@@ -2879,24 +2862,24 @@
       <c r="T31" t="s">
         <v>25</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U31">
         <v>1670397</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V31">
         <v>582676</v>
       </c>
       <c r="W31" t="s">
         <v>25</v>
       </c>
-      <c r="X31" t="n">
+      <c r="X31">
         <v>2039</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Y31">
         <v>2007</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>44621</v>
       </c>
       <c r="B32" t="s">
@@ -2905,9 +2888,6 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
       <c r="E32" t="s">
         <v>25</v>
       </c>
@@ -2923,12 +2903,6 @@
       <c r="I32" t="s">
         <v>25</v>
       </c>
-      <c r="J32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" t="s">
-        <v>25</v>
-      </c>
       <c r="L32" t="s">
         <v>25</v>
       </c>
@@ -2956,24 +2930,24 @@
       <c r="T32" t="s">
         <v>25</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U32">
         <v>1660923</v>
       </c>
-      <c r="V32" t="n">
+      <c r="V32">
         <v>562545</v>
       </c>
       <c r="W32" t="s">
         <v>25</v>
       </c>
-      <c r="X32" t="n">
+      <c r="X32">
         <v>2040</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Y32">
         <v>2008</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>44652</v>
       </c>
       <c r="B33" t="s">
@@ -2982,9 +2956,6 @@
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
       <c r="E33" t="s">
         <v>25</v>
       </c>
@@ -3000,12 +2971,6 @@
       <c r="I33" t="s">
         <v>25</v>
       </c>
-      <c r="J33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" t="s">
-        <v>25</v>
-      </c>
       <c r="L33" t="s">
         <v>25</v>
       </c>
@@ -3033,24 +2998,24 @@
       <c r="T33" t="s">
         <v>25</v>
       </c>
-      <c r="U33" t="n">
+      <c r="U33">
         <v>1702265</v>
       </c>
-      <c r="V33" t="n">
+      <c r="V33">
         <v>582485</v>
       </c>
       <c r="W33" t="s">
         <v>25</v>
       </c>
-      <c r="X33" t="n">
+      <c r="X33">
         <v>2041</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Y33">
         <v>2009</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>44682</v>
       </c>
       <c r="B34" t="s">
@@ -3059,9 +3024,6 @@
       <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
       <c r="E34" t="s">
         <v>25</v>
       </c>
@@ -3077,12 +3039,6 @@
       <c r="I34" t="s">
         <v>25</v>
       </c>
-      <c r="J34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" t="s">
-        <v>25</v>
-      </c>
       <c r="L34" t="s">
         <v>25</v>
       </c>
@@ -3110,24 +3066,24 @@
       <c r="T34" t="s">
         <v>25</v>
       </c>
-      <c r="U34" t="n">
+      <c r="U34">
         <v>1726416</v>
       </c>
-      <c r="V34" t="n">
+      <c r="V34">
         <v>589526</v>
       </c>
       <c r="W34" t="s">
         <v>25</v>
       </c>
-      <c r="X34" t="n">
+      <c r="X34">
         <v>2042</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Y34">
         <v>2010</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>44713</v>
       </c>
       <c r="B35" t="s">
@@ -3136,9 +3092,6 @@
       <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
       <c r="E35" t="s">
         <v>25</v>
       </c>
@@ -3154,12 +3107,6 @@
       <c r="I35" t="s">
         <v>25</v>
       </c>
-      <c r="J35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" t="s">
-        <v>25</v>
-      </c>
       <c r="L35" t="s">
         <v>25</v>
       </c>
@@ -3187,24 +3134,24 @@
       <c r="T35" t="s">
         <v>25</v>
       </c>
-      <c r="U35" t="n">
+      <c r="U35">
         <v>1694068</v>
       </c>
-      <c r="V35" t="n">
+      <c r="V35">
         <v>578505</v>
       </c>
-      <c r="W35" t="n">
+      <c r="W35">
         <v>2017</v>
       </c>
-      <c r="X35" t="n">
+      <c r="X35">
         <v>2043</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Y35">
         <v>2011</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>44743</v>
       </c>
       <c r="B36" t="s">
@@ -3213,9 +3160,6 @@
       <c r="C36" t="s">
         <v>25</v>
       </c>
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
       <c r="E36" t="s">
         <v>25</v>
       </c>
@@ -3231,12 +3175,6 @@
       <c r="I36" t="s">
         <v>25</v>
       </c>
-      <c r="J36" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" t="s">
-        <v>25</v>
-      </c>
       <c r="L36" t="s">
         <v>25</v>
       </c>
@@ -3264,24 +3202,24 @@
       <c r="T36" t="s">
         <v>25</v>
       </c>
-      <c r="U36" t="n">
+      <c r="U36">
         <v>1701443</v>
       </c>
-      <c r="V36" t="n">
+      <c r="V36">
         <v>585530</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W36">
         <v>2018</v>
       </c>
-      <c r="X36" t="n">
+      <c r="X36">
         <v>2044</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y36">
         <v>2012</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>44774</v>
       </c>
       <c r="B37" t="s">
@@ -3290,9 +3228,6 @@
       <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
       <c r="E37" t="s">
         <v>25</v>
       </c>
@@ -3308,12 +3243,6 @@
       <c r="I37" t="s">
         <v>25</v>
       </c>
-      <c r="J37" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" t="s">
-        <v>25</v>
-      </c>
       <c r="L37" t="s">
         <v>25</v>
       </c>
@@ -3341,24 +3270,24 @@
       <c r="T37" t="s">
         <v>25</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U37">
         <v>1710479</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V37">
         <v>582295</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W37">
         <v>2019</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X37">
         <v>2045</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Y37">
         <v>2013</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>44805</v>
       </c>
       <c r="B38" t="s">
@@ -3367,9 +3296,6 @@
       <c r="C38" t="s">
         <v>25</v>
       </c>
-      <c r="D38" t="s">
-        <v>25</v>
-      </c>
       <c r="E38" t="s">
         <v>25</v>
       </c>
@@ -3385,12 +3311,6 @@
       <c r="I38" t="s">
         <v>25</v>
       </c>
-      <c r="J38" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" t="s">
-        <v>25</v>
-      </c>
       <c r="L38" t="s">
         <v>25</v>
       </c>
@@ -3418,10 +3338,10 @@
       <c r="T38" t="s">
         <v>25</v>
       </c>
-      <c r="U38" t="n">
+      <c r="U38">
         <v>1645274</v>
       </c>
-      <c r="V38" t="n">
+      <c r="V38">
         <v>583627</v>
       </c>
       <c r="W38" t="s">
@@ -3434,8 +3354,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>44835</v>
       </c>
       <c r="B39" t="s">
@@ -3444,9 +3364,6 @@
       <c r="C39" t="s">
         <v>25</v>
       </c>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
       <c r="E39" t="s">
         <v>25</v>
       </c>
@@ -3462,12 +3379,6 @@
       <c r="I39" t="s">
         <v>25</v>
       </c>
-      <c r="J39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" t="s">
-        <v>25</v>
-      </c>
       <c r="L39" t="s">
         <v>25</v>
       </c>
@@ -3495,10 +3406,10 @@
       <c r="T39" t="s">
         <v>25</v>
       </c>
-      <c r="U39" t="n">
+      <c r="U39">
         <v>1470351</v>
       </c>
-      <c r="V39" t="n">
+      <c r="V39">
         <v>550689</v>
       </c>
       <c r="W39" t="s">
@@ -3511,8 +3422,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>44866</v>
       </c>
       <c r="B40" t="s">
@@ -3521,9 +3432,6 @@
       <c r="C40" t="s">
         <v>25</v>
       </c>
-      <c r="D40" t="s">
-        <v>25</v>
-      </c>
       <c r="E40" t="s">
         <v>25</v>
       </c>
@@ -3539,12 +3447,6 @@
       <c r="I40" t="s">
         <v>25</v>
       </c>
-      <c r="J40" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" t="s">
-        <v>25</v>
-      </c>
       <c r="L40" t="s">
         <v>25</v>
       </c>
@@ -3572,10 +3474,10 @@
       <c r="T40" t="s">
         <v>25</v>
       </c>
-      <c r="U40" t="n">
+      <c r="U40">
         <v>1520116</v>
       </c>
-      <c r="V40" t="n">
+      <c r="V40">
         <v>576053</v>
       </c>
       <c r="W40" t="s">
@@ -3588,8 +3490,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>44896</v>
       </c>
       <c r="B41" t="s">
@@ -3598,9 +3500,6 @@
       <c r="C41" t="s">
         <v>25</v>
       </c>
-      <c r="D41" t="s">
-        <v>25</v>
-      </c>
       <c r="E41" t="s">
         <v>25</v>
       </c>
@@ -3616,12 +3515,6 @@
       <c r="I41" t="s">
         <v>25</v>
       </c>
-      <c r="J41" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" t="s">
-        <v>25</v>
-      </c>
       <c r="L41" t="s">
         <v>25</v>
       </c>
@@ -3649,10 +3542,10 @@
       <c r="T41" t="s">
         <v>25</v>
       </c>
-      <c r="U41" t="n">
+      <c r="U41">
         <v>1557598</v>
       </c>
-      <c r="V41" t="n">
+      <c r="V41">
         <v>549587</v>
       </c>
       <c r="W41" t="s">
@@ -3665,8 +3558,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>44927</v>
       </c>
       <c r="B42" t="s">
@@ -3675,9 +3568,6 @@
       <c r="C42" t="s">
         <v>25</v>
       </c>
-      <c r="D42" t="s">
-        <v>25</v>
-      </c>
       <c r="E42" t="s">
         <v>25</v>
       </c>
@@ -3693,12 +3583,6 @@
       <c r="I42" t="s">
         <v>25</v>
       </c>
-      <c r="J42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" t="s">
-        <v>25</v>
-      </c>
       <c r="L42" t="s">
         <v>25</v>
       </c>
@@ -3726,10 +3610,10 @@
       <c r="T42" t="s">
         <v>25</v>
       </c>
-      <c r="U42" t="n">
+      <c r="U42">
         <v>1698159</v>
       </c>
-      <c r="V42" t="n">
+      <c r="V42">
         <v>584579</v>
       </c>
       <c r="W42" t="s">
@@ -3742,8 +3626,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>44958</v>
       </c>
       <c r="B43" t="s">
@@ -3752,9 +3636,6 @@
       <c r="C43" t="s">
         <v>25</v>
       </c>
-      <c r="D43" t="s">
-        <v>25</v>
-      </c>
       <c r="E43" t="s">
         <v>25</v>
       </c>
@@ -3770,12 +3651,6 @@
       <c r="I43" t="s">
         <v>25</v>
       </c>
-      <c r="J43" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" t="s">
-        <v>25</v>
-      </c>
       <c r="L43" t="s">
         <v>25</v>
       </c>
@@ -3803,10 +3678,10 @@
       <c r="T43" t="s">
         <v>25</v>
       </c>
-      <c r="U43" t="n">
+      <c r="U43">
         <v>1656059</v>
       </c>
-      <c r="V43" t="n">
+      <c r="V43">
         <v>568715</v>
       </c>
       <c r="W43" t="s">
@@ -3819,8 +3694,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>44986</v>
       </c>
       <c r="B44" t="s">
@@ -3829,9 +3704,6 @@
       <c r="C44" t="s">
         <v>25</v>
       </c>
-      <c r="D44" t="s">
-        <v>25</v>
-      </c>
       <c r="E44" t="s">
         <v>25</v>
       </c>
@@ -3847,12 +3719,6 @@
       <c r="I44" t="s">
         <v>25</v>
       </c>
-      <c r="J44" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" t="s">
-        <v>25</v>
-      </c>
       <c r="L44" t="s">
         <v>25</v>
       </c>
@@ -3880,10 +3746,10 @@
       <c r="T44" t="s">
         <v>25</v>
       </c>
-      <c r="U44" t="n">
+      <c r="U44">
         <v>1692704</v>
       </c>
-      <c r="V44" t="n">
+      <c r="V44">
         <v>578317</v>
       </c>
       <c r="W44" t="s">
@@ -3896,8 +3762,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>45017</v>
       </c>
       <c r="B45" t="s">
@@ -3906,9 +3772,6 @@
       <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="D45" t="s">
-        <v>25</v>
-      </c>
       <c r="E45" t="s">
         <v>25</v>
       </c>
@@ -3924,12 +3787,6 @@
       <c r="I45" t="s">
         <v>25</v>
       </c>
-      <c r="J45" t="s">
-        <v>25</v>
-      </c>
-      <c r="K45" t="s">
-        <v>25</v>
-      </c>
       <c r="L45" t="s">
         <v>25</v>
       </c>
@@ -3957,10 +3814,10 @@
       <c r="T45" t="s">
         <v>25</v>
       </c>
-      <c r="U45" t="n">
+      <c r="U45">
         <v>1722841</v>
       </c>
-      <c r="V45" t="n">
+      <c r="V45">
         <v>582105</v>
       </c>
       <c r="W45" t="s">
@@ -3973,8 +3830,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>45047</v>
       </c>
       <c r="B46" t="s">
@@ -3983,9 +3840,6 @@
       <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="D46" t="s">
-        <v>25</v>
-      </c>
       <c r="E46" t="s">
         <v>25</v>
       </c>
@@ -4001,12 +3855,6 @@
       <c r="I46" t="s">
         <v>25</v>
       </c>
-      <c r="J46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" t="s">
-        <v>25</v>
-      </c>
       <c r="L46" t="s">
         <v>25</v>
       </c>
@@ -4034,10 +3882,10 @@
       <c r="T46" t="s">
         <v>25</v>
       </c>
-      <c r="U46" t="n">
+      <c r="U46">
         <v>1706920</v>
       </c>
-      <c r="V46" t="n">
+      <c r="V46">
         <v>589907</v>
       </c>
       <c r="W46" t="s">
@@ -4050,8 +3898,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45078</v>
       </c>
       <c r="B47" t="s">
@@ -4060,9 +3908,6 @@
       <c r="C47" t="s">
         <v>25</v>
       </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
       <c r="E47" t="s">
         <v>25</v>
       </c>
@@ -4078,12 +3923,6 @@
       <c r="I47" t="s">
         <v>25</v>
       </c>
-      <c r="J47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" t="s">
-        <v>25</v>
-      </c>
       <c r="L47" t="s">
         <v>25</v>
       </c>
@@ -4111,10 +3950,10 @@
       <c r="T47" t="s">
         <v>25</v>
       </c>
-      <c r="U47" t="n">
+      <c r="U47">
         <v>1720917</v>
       </c>
-      <c r="V47" t="n">
+      <c r="V47">
         <v>597394</v>
       </c>
       <c r="W47" t="s">
@@ -4127,8 +3966,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>45108</v>
       </c>
       <c r="B48" t="s">
@@ -4137,9 +3976,6 @@
       <c r="C48" t="s">
         <v>25</v>
       </c>
-      <c r="D48" t="s">
-        <v>25</v>
-      </c>
       <c r="E48" t="s">
         <v>25</v>
       </c>
@@ -4155,12 +3991,6 @@
       <c r="I48" t="s">
         <v>25</v>
       </c>
-      <c r="J48" t="s">
-        <v>25</v>
-      </c>
-      <c r="K48" t="s">
-        <v>25</v>
-      </c>
       <c r="L48" t="s">
         <v>25</v>
       </c>
@@ -4188,10 +4018,10 @@
       <c r="T48" t="s">
         <v>25</v>
       </c>
-      <c r="U48" t="n">
+      <c r="U48">
         <v>1686975</v>
       </c>
-      <c r="V48" t="n">
+      <c r="V48">
         <v>580203</v>
       </c>
       <c r="W48" t="s">
@@ -4204,8 +4034,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>45139</v>
       </c>
       <c r="B49" t="s">
@@ -4214,9 +4044,6 @@
       <c r="C49" t="s">
         <v>25</v>
       </c>
-      <c r="D49" t="s">
-        <v>25</v>
-      </c>
       <c r="E49" t="s">
         <v>25</v>
       </c>
@@ -4232,12 +4059,6 @@
       <c r="I49" t="s">
         <v>25</v>
       </c>
-      <c r="J49" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" t="s">
-        <v>25</v>
-      </c>
       <c r="L49" t="s">
         <v>25</v>
       </c>
@@ -4265,10 +4086,10 @@
       <c r="T49" t="s">
         <v>25</v>
       </c>
-      <c r="U49" t="n">
+      <c r="U49">
         <v>1674741</v>
       </c>
-      <c r="V49" t="n">
+      <c r="V49">
         <v>586101</v>
       </c>
       <c r="W49" t="s">
@@ -4281,8 +4102,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>45170</v>
       </c>
       <c r="B50" t="s">
@@ -4291,9 +4112,6 @@
       <c r="C50" t="s">
         <v>25</v>
       </c>
-      <c r="D50" t="s">
-        <v>25</v>
-      </c>
       <c r="E50" t="s">
         <v>25</v>
       </c>
@@ -4309,12 +4127,6 @@
       <c r="I50" t="s">
         <v>25</v>
       </c>
-      <c r="J50" t="s">
-        <v>25</v>
-      </c>
-      <c r="K50" t="s">
-        <v>25</v>
-      </c>
       <c r="L50" t="s">
         <v>25</v>
       </c>
@@ -4342,10 +4154,10 @@
       <c r="T50" t="s">
         <v>25</v>
       </c>
-      <c r="U50" t="n">
+      <c r="U50">
         <v>1605551</v>
       </c>
-      <c r="V50" t="n">
+      <c r="V50">
         <v>581153</v>
       </c>
       <c r="W50" t="s">
@@ -4358,8 +4170,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>45200</v>
       </c>
       <c r="B51" t="s">
@@ -4368,9 +4180,6 @@
       <c r="C51" t="s">
         <v>25</v>
       </c>
-      <c r="D51" t="s">
-        <v>25</v>
-      </c>
       <c r="E51" t="s">
         <v>25</v>
       </c>
@@ -4386,12 +4195,6 @@
       <c r="I51" t="s">
         <v>25</v>
       </c>
-      <c r="J51" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" t="s">
-        <v>25</v>
-      </c>
       <c r="L51" t="s">
         <v>25</v>
       </c>
@@ -4419,10 +4222,10 @@
       <c r="T51" t="s">
         <v>25</v>
       </c>
-      <c r="U51" t="n">
+      <c r="U51">
         <v>1506574</v>
       </c>
-      <c r="V51" t="n">
+      <c r="V51">
         <v>578128</v>
       </c>
       <c r="W51" t="s">
@@ -4435,8 +4238,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>45231</v>
       </c>
       <c r="B52" t="s">
@@ -4445,9 +4248,6 @@
       <c r="C52" t="s">
         <v>25</v>
       </c>
-      <c r="D52" t="s">
-        <v>25</v>
-      </c>
       <c r="E52" t="s">
         <v>25</v>
       </c>
@@ -4463,12 +4263,6 @@
       <c r="I52" t="s">
         <v>25</v>
       </c>
-      <c r="J52" t="s">
-        <v>25</v>
-      </c>
-      <c r="K52" t="s">
-        <v>25</v>
-      </c>
       <c r="L52" t="s">
         <v>25</v>
       </c>
@@ -4496,10 +4290,10 @@
       <c r="T52" t="s">
         <v>25</v>
       </c>
-      <c r="U52" t="n">
+      <c r="U52">
         <v>1514640</v>
       </c>
-      <c r="V52" t="n">
+      <c r="V52">
         <v>572091</v>
       </c>
       <c r="W52" t="s">
@@ -4512,8 +4306,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>45261</v>
       </c>
       <c r="B53" t="s">
@@ -4522,9 +4316,6 @@
       <c r="C53" t="s">
         <v>25</v>
       </c>
-      <c r="D53" t="s">
-        <v>25</v>
-      </c>
       <c r="E53" t="s">
         <v>25</v>
       </c>
@@ -4540,12 +4331,6 @@
       <c r="I53" t="s">
         <v>25</v>
       </c>
-      <c r="J53" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" t="s">
-        <v>25</v>
-      </c>
       <c r="L53" t="s">
         <v>25</v>
       </c>
@@ -4573,10 +4358,10 @@
       <c r="T53" t="s">
         <v>25</v>
       </c>
-      <c r="U53" t="n">
+      <c r="U53">
         <v>1584553</v>
       </c>
-      <c r="V53" t="n">
+      <c r="V53">
         <v>560127</v>
       </c>
       <c r="W53" t="s">
@@ -4589,8 +4374,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>45292</v>
       </c>
       <c r="B54" t="s">
@@ -4599,9 +4384,6 @@
       <c r="C54" t="s">
         <v>25</v>
       </c>
-      <c r="D54" t="s">
-        <v>25</v>
-      </c>
       <c r="E54" t="s">
         <v>25</v>
       </c>
@@ -4617,12 +4399,6 @@
       <c r="I54" t="s">
         <v>25</v>
       </c>
-      <c r="J54" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" t="s">
-        <v>25</v>
-      </c>
       <c r="L54" t="s">
         <v>25</v>
       </c>
@@ -4650,10 +4426,10 @@
       <c r="T54" t="s">
         <v>25</v>
       </c>
-      <c r="U54" t="n">
+      <c r="U54">
         <v>1651366</v>
       </c>
-      <c r="V54" t="n">
+      <c r="V54">
         <v>553758.4</v>
       </c>
       <c r="W54" t="s">
@@ -4666,8 +4442,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>45323</v>
       </c>
       <c r="B55" t="s">
@@ -4676,9 +4452,6 @@
       <c r="C55" t="s">
         <v>25</v>
       </c>
-      <c r="D55" t="s">
-        <v>25</v>
-      </c>
       <c r="E55" t="s">
         <v>25</v>
       </c>
@@ -4694,12 +4467,6 @@
       <c r="I55" t="s">
         <v>25</v>
       </c>
-      <c r="J55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K55" t="s">
-        <v>25</v>
-      </c>
       <c r="L55" t="s">
         <v>25</v>
       </c>
@@ -4727,10 +4494,10 @@
       <c r="T55" t="s">
         <v>25</v>
       </c>
-      <c r="U55" t="n">
+      <c r="U55">
         <v>1645183</v>
       </c>
-      <c r="V55" t="n">
+      <c r="V55">
         <v>551973.6</v>
       </c>
       <c r="W55" t="s">
@@ -4743,8 +4510,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>45352</v>
       </c>
       <c r="B56" t="s">
@@ -4753,9 +4520,6 @@
       <c r="C56" t="s">
         <v>25</v>
       </c>
-      <c r="D56" t="s">
-        <v>25</v>
-      </c>
       <c r="E56" t="s">
         <v>25</v>
       </c>
@@ -4771,12 +4535,6 @@
       <c r="I56" t="s">
         <v>25</v>
       </c>
-      <c r="J56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K56" t="s">
-        <v>25</v>
-      </c>
       <c r="L56" t="s">
         <v>25</v>
       </c>
@@ -4804,10 +4562,10 @@
       <c r="T56" t="s">
         <v>25</v>
       </c>
-      <c r="U56" t="n">
+      <c r="U56">
         <v>1703265</v>
       </c>
-      <c r="V56" t="n">
+      <c r="V56">
         <v>568584.4</v>
       </c>
       <c r="W56" t="s">
@@ -4820,8 +4578,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>45383</v>
       </c>
       <c r="B57" t="s">
@@ -4830,9 +4588,6 @@
       <c r="C57" t="s">
         <v>25</v>
       </c>
-      <c r="D57" t="s">
-        <v>25</v>
-      </c>
       <c r="E57" t="s">
         <v>25</v>
       </c>
@@ -4848,12 +4603,6 @@
       <c r="I57" t="s">
         <v>25</v>
       </c>
-      <c r="J57" t="s">
-        <v>25</v>
-      </c>
-      <c r="K57" t="s">
-        <v>25</v>
-      </c>
       <c r="L57" t="s">
         <v>25</v>
       </c>
@@ -4881,10 +4630,10 @@
       <c r="T57" t="s">
         <v>25</v>
       </c>
-      <c r="U57" t="n">
+      <c r="U57">
         <v>1745673.1</v>
       </c>
-      <c r="V57" t="n">
+      <c r="V57">
         <v>597169</v>
       </c>
       <c r="W57" t="s">
@@ -4897,8 +4646,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>45413</v>
       </c>
       <c r="B58" t="s">
@@ -4907,9 +4656,6 @@
       <c r="C58" t="s">
         <v>25</v>
       </c>
-      <c r="D58" t="s">
-        <v>25</v>
-      </c>
       <c r="E58" t="s">
         <v>25</v>
       </c>
@@ -4925,12 +4671,6 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="J58" t="s">
-        <v>25</v>
-      </c>
-      <c r="K58" t="s">
-        <v>25</v>
-      </c>
       <c r="L58" t="s">
         <v>25</v>
       </c>
@@ -4958,10 +4698,10 @@
       <c r="T58" t="s">
         <v>25</v>
       </c>
-      <c r="U58" t="n">
+      <c r="U58">
         <v>1700542.5</v>
       </c>
-      <c r="V58" t="n">
+      <c r="V58">
         <v>581455</v>
       </c>
       <c r="W58" t="s">
@@ -4974,8 +4714,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>45444</v>
       </c>
       <c r="B59" t="s">
@@ -4984,9 +4724,6 @@
       <c r="C59" t="s">
         <v>25</v>
       </c>
-      <c r="D59" t="s">
-        <v>25</v>
-      </c>
       <c r="E59" t="s">
         <v>25</v>
       </c>
@@ -5002,12 +4739,6 @@
       <c r="I59" t="s">
         <v>25</v>
       </c>
-      <c r="J59" t="s">
-        <v>25</v>
-      </c>
-      <c r="K59" t="s">
-        <v>25</v>
-      </c>
       <c r="L59" t="s">
         <v>25</v>
       </c>
@@ -5035,10 +4766,10 @@
       <c r="T59" t="s">
         <v>25</v>
       </c>
-      <c r="U59" t="n">
+      <c r="U59">
         <v>1740991.8</v>
       </c>
-      <c r="V59" t="n">
+      <c r="V59">
         <v>595733.4</v>
       </c>
       <c r="W59" t="s">
@@ -5051,8 +4782,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>45474</v>
       </c>
       <c r="B60" t="s">
@@ -5061,9 +4792,6 @@
       <c r="C60" t="s">
         <v>25</v>
       </c>
-      <c r="D60" t="s">
-        <v>25</v>
-      </c>
       <c r="E60" t="s">
         <v>25</v>
       </c>
@@ -5079,12 +4807,6 @@
       <c r="I60" t="s">
         <v>25</v>
       </c>
-      <c r="J60" t="s">
-        <v>25</v>
-      </c>
-      <c r="K60" t="s">
-        <v>25</v>
-      </c>
       <c r="L60" t="s">
         <v>25</v>
       </c>
@@ -5112,10 +4834,10 @@
       <c r="T60" t="s">
         <v>25</v>
       </c>
-      <c r="U60" t="n">
+      <c r="U60">
         <v>1719242.5</v>
       </c>
-      <c r="V60" t="n">
+      <c r="V60">
         <v>600060</v>
       </c>
       <c r="W60" t="s">
@@ -5128,8 +4850,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>45505</v>
       </c>
       <c r="B61" t="s">
@@ -5138,9 +4860,6 @@
       <c r="C61" t="s">
         <v>25</v>
       </c>
-      <c r="D61" t="s">
-        <v>25</v>
-      </c>
       <c r="E61" t="s">
         <v>25</v>
       </c>
@@ -5156,12 +4875,6 @@
       <c r="I61" t="s">
         <v>25</v>
       </c>
-      <c r="J61" t="s">
-        <v>25</v>
-      </c>
-      <c r="K61" t="s">
-        <v>25</v>
-      </c>
       <c r="L61" t="s">
         <v>25</v>
       </c>
@@ -5189,10 +4902,10 @@
       <c r="T61" t="s">
         <v>25</v>
       </c>
-      <c r="U61" t="n">
+      <c r="U61">
         <v>1671481.9</v>
       </c>
-      <c r="V61" t="n">
+      <c r="V61">
         <v>589777.6</v>
       </c>
       <c r="W61" t="s">
@@ -5205,8 +4918,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>45536</v>
       </c>
       <c r="B62" t="s">
@@ -5215,9 +4928,6 @@
       <c r="C62" t="s">
         <v>25</v>
       </c>
-      <c r="D62" t="s">
-        <v>25</v>
-      </c>
       <c r="E62" t="s">
         <v>25</v>
       </c>
@@ -5233,12 +4943,6 @@
       <c r="I62" t="s">
         <v>25</v>
       </c>
-      <c r="J62" t="s">
-        <v>25</v>
-      </c>
-      <c r="K62" t="s">
-        <v>25</v>
-      </c>
       <c r="L62" t="s">
         <v>25</v>
       </c>
@@ -5266,10 +4970,10 @@
       <c r="T62" t="s">
         <v>25</v>
       </c>
-      <c r="U62" t="n">
+      <c r="U62">
         <v>1626511.5</v>
       </c>
-      <c r="V62" t="n">
+      <c r="V62">
         <v>579357.4</v>
       </c>
       <c r="W62" t="s">
@@ -5282,8 +4986,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>45566</v>
       </c>
       <c r="B63" t="s">
@@ -5292,9 +4996,6 @@
       <c r="C63" t="s">
         <v>25</v>
       </c>
-      <c r="D63" t="s">
-        <v>25</v>
-      </c>
       <c r="E63" t="s">
         <v>25</v>
       </c>
@@ -5310,12 +5011,6 @@
       <c r="I63" t="s">
         <v>25</v>
       </c>
-      <c r="J63" t="s">
-        <v>25</v>
-      </c>
-      <c r="K63" t="s">
-        <v>25</v>
-      </c>
       <c r="L63" t="s">
         <v>25</v>
       </c>
@@ -5343,10 +5038,10 @@
       <c r="T63" t="s">
         <v>25</v>
       </c>
-      <c r="U63" t="n">
+      <c r="U63">
         <v>1506574</v>
       </c>
-      <c r="V63" t="n">
+      <c r="V63">
         <v>578128</v>
       </c>
       <c r="W63" t="s">
@@ -5359,8 +5054,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>45597</v>
       </c>
       <c r="B64" t="s">
@@ -5369,9 +5064,6 @@
       <c r="C64" t="s">
         <v>25</v>
       </c>
-      <c r="D64" t="s">
-        <v>25</v>
-      </c>
       <c r="E64" t="s">
         <v>25</v>
       </c>
@@ -5387,12 +5079,6 @@
       <c r="I64" t="s">
         <v>25</v>
       </c>
-      <c r="J64" t="s">
-        <v>25</v>
-      </c>
-      <c r="K64" t="s">
-        <v>25</v>
-      </c>
       <c r="L64" t="s">
         <v>25</v>
       </c>
@@ -5420,10 +5106,10 @@
       <c r="T64" t="s">
         <v>25</v>
       </c>
-      <c r="U64" t="n">
+      <c r="U64">
         <v>1514640</v>
       </c>
-      <c r="V64" t="n">
+      <c r="V64">
         <v>572091</v>
       </c>
       <c r="W64" t="s">
@@ -5436,8 +5122,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>45627</v>
       </c>
       <c r="B65" t="s">
@@ -5446,9 +5132,6 @@
       <c r="C65" t="s">
         <v>25</v>
       </c>
-      <c r="D65" t="s">
-        <v>25</v>
-      </c>
       <c r="E65" t="s">
         <v>25</v>
       </c>
@@ -5464,12 +5147,6 @@
       <c r="I65" t="s">
         <v>25</v>
       </c>
-      <c r="J65" t="s">
-        <v>25</v>
-      </c>
-      <c r="K65" t="s">
-        <v>25</v>
-      </c>
       <c r="L65" t="s">
         <v>25</v>
       </c>
@@ -5497,10 +5174,10 @@
       <c r="T65" t="s">
         <v>25</v>
       </c>
-      <c r="U65" t="n">
+      <c r="U65">
         <v>1584553</v>
       </c>
-      <c r="V65" t="n">
+      <c r="V65">
         <v>560127</v>
       </c>
       <c r="W65" t="s">
@@ -5515,19 +5192,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5550,8 +5227,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>43466</v>
       </c>
       <c r="B2" t="s">
@@ -5566,21 +5243,21 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>3538.52</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1009.8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43831</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
@@ -5589,44 +5266,44 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>3467.32</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>998.78</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>44197</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>8232000</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>3416.72</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>962.1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>44562</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -5635,28 +5312,28 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3427</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>955</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5697,1087 +5374,1087 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>43709</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>34968.69</v>
       </c>
-      <c r="C2" t="n">
-        <v>39165.62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>58462.56</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>39165.620000000003</v>
+      </c>
+      <c r="D2">
+        <v>58462.559999999998</v>
+      </c>
+      <c r="E2">
         <v>49002.55</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>16367.6</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>52122.31</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>35521.65</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>15189.66</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>456397.1</v>
       </c>
-      <c r="K2" t="n">
-        <v>7298.78518</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2">
+        <v>7298.7851799999999</v>
+      </c>
+      <c r="L2">
         <v>7578.58</v>
       </c>
-      <c r="M2" t="n">
-        <v>34901.16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="M2">
+        <v>34901.160000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43739</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35759.49</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>41002.1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>73509.27</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>50327.7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>19757.36</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>87149.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>36736.23</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>36736.230000000003</v>
+      </c>
+      <c r="I3">
         <v>54046.01</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>512755.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>5209.73548</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="K3">
+        <v>5209.7354800000003</v>
+      </c>
+      <c r="L3">
         <v>14755.02</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>42049.59</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>43770</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>28591.05</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>33674.6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>63733.79</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>45847.01</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>15883.64</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>55581.22</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>30104.69</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>30861.96</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>506277.9</v>
       </c>
-      <c r="K4" t="n">
-        <v>4070.26435</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8591.8</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41307.77</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="K4">
+        <v>4070.2643499999999</v>
+      </c>
+      <c r="L4">
+        <v>8591.7999999999993</v>
+      </c>
+      <c r="M4">
+        <v>41307.769999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>43800</v>
       </c>
-      <c r="B5" t="n">
-        <v>24381.76</v>
-      </c>
-      <c r="C5" t="n">
-        <v>27988.8</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5">
+        <v>24381.759999999998</v>
+      </c>
+      <c r="C5">
+        <v>27988.799999999999</v>
+      </c>
+      <c r="D5">
         <v>37995.26</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>34683.18</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>12035.7</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>37105.31</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>24685.39</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>18882.04</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>362561.4</v>
       </c>
-      <c r="K5" t="n">
-        <v>4001.48757</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="K5">
+        <v>4001.4875699999998</v>
+      </c>
+      <c r="L5">
         <v>5281.24</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>32009.26</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>43831</v>
       </c>
-      <c r="B6" t="n">
-        <v>22281.76</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>22281.759999999998</v>
+      </c>
+      <c r="C6">
         <v>26672.36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>45170.76</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>31940.27</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>10318.02</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>28796.41</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>23181.07</v>
       </c>
-      <c r="I6" t="n">
-        <v>17605.33</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I6">
+        <v>17605.330000000002</v>
+      </c>
+      <c r="J6">
         <v>355903.6</v>
       </c>
-      <c r="K6" t="n">
-        <v>4102.9008</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4751.39</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="K6">
+        <v>4102.9008000000003</v>
+      </c>
+      <c r="L6">
+        <v>4751.3900000000003</v>
+      </c>
+      <c r="M6">
         <v>29514.05</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>43862</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>21239.93</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>25611.11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>47199.1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>30265.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>9286.61</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>26793.08</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>22220.51</v>
       </c>
-      <c r="I7" t="n">
-        <v>18591.65</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="I7">
+        <v>18591.650000000001</v>
+      </c>
+      <c r="J7">
         <v>342406.2</v>
       </c>
-      <c r="K7" t="n">
-        <v>6243.5537</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4344.39</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="K7">
+        <v>6243.5537000000004</v>
+      </c>
+      <c r="L7">
+        <v>4344.3900000000003</v>
+      </c>
+      <c r="M7">
         <v>26580.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>43891</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>40427.46</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>49083.59</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>103968.4</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>64413.55</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>24840.99</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>55466.38</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>42786.36</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>74184.06</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>559911.9</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>10072.84296</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>12285.93</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>102557.4</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>43922</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>57201.21</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>71218.19</v>
       </c>
-      <c r="D9" t="n">
-        <v>136110.3</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>136110.29999999999</v>
+      </c>
+      <c r="E9">
         <v>97783.64</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>70446.94</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>101588.1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>63483.15</v>
       </c>
-      <c r="I9" t="n">
-        <v>148976.3</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9">
+        <v>148976.29999999999</v>
+      </c>
+      <c r="J9">
         <v>763903.3</v>
       </c>
-      <c r="K9" t="n">
-        <v>15411.98346</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="K9">
+        <v>15411.983459999999</v>
+      </c>
+      <c r="L9">
         <v>36026.39</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>184482.6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>43952</v>
       </c>
-      <c r="B10" t="n">
-        <v>74254.65</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>74254.649999999994</v>
+      </c>
+      <c r="C10">
         <v>85665.31</v>
       </c>
-      <c r="D10" t="n">
-        <v>153338.7</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>153338.70000000001</v>
+      </c>
+      <c r="E10">
         <v>130217.17</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>93679.34</v>
       </c>
-      <c r="G10" t="n">
-        <v>50749.76</v>
-      </c>
-      <c r="H10" t="n">
-        <v>79893.57</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="G10">
+        <v>50749.760000000002</v>
+      </c>
+      <c r="H10">
+        <v>79893.570000000007</v>
+      </c>
+      <c r="I10">
         <v>130573.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>791885.6</v>
       </c>
-      <c r="K10" t="n">
-        <v>8663.90082</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10">
+        <v>8663.9008200000007</v>
+      </c>
+      <c r="L10">
         <v>42214.25</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>182400</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>43983</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>44608.53</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>48605.24</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>188074.6</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>188763.85</v>
       </c>
-      <c r="F11" t="n">
-        <v>44774.88</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>44774.879999999997</v>
+      </c>
+      <c r="G11">
         <v>14444.34</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>45317.89</v>
       </c>
-      <c r="I11" t="n">
-        <v>20383.42</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I11">
+        <v>20383.419999999998</v>
+      </c>
+      <c r="J11">
         <v>353449.2</v>
       </c>
-      <c r="K11" t="n">
-        <v>5915.76864</v>
-      </c>
-      <c r="L11" t="n">
-        <v>17140.17</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="K11">
+        <v>5915.7686400000002</v>
+      </c>
+      <c r="L11">
+        <v>17140.169999999998</v>
+      </c>
+      <c r="M11">
         <v>45058.51</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>44013</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>30380.59</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>34678.42</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>92694.74</v>
       </c>
-      <c r="E12" t="n">
-        <v>91508.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>19822.81</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="E12">
+        <v>91508.800000000003</v>
+      </c>
+      <c r="F12">
+        <v>19822.810000000001</v>
+      </c>
+      <c r="G12">
         <v>4113.76</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>30698.07</v>
       </c>
-      <c r="I12" t="n">
-        <v>10362.63</v>
-      </c>
-      <c r="J12" t="n">
-        <v>153970.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4483.23132</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="I12">
+        <v>10362.629999999999</v>
+      </c>
+      <c r="J12">
+        <v>153970.79999999999</v>
+      </c>
+      <c r="K12">
+        <v>4483.2313199999999</v>
+      </c>
+      <c r="L12">
         <v>11217.52</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>8350.41</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>44044</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>28193.7</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>31712.19</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>28656.09</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>36319.83</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>15633.72</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1640.75</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>28453.88</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>361.61</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>101211.9</v>
       </c>
-      <c r="K13" t="n">
-        <v>4319.80995</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="K13">
+        <v>4319.8099499999998</v>
+      </c>
+      <c r="L13">
         <v>7061.57</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>5998.02</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>44075</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>19182.39</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>21793.29</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>19438.45</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>23235.96</v>
       </c>
-      <c r="F14" t="n">
-        <v>10185.12</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14">
+        <v>10185.120000000001</v>
+      </c>
+      <c r="G14">
         <v>31278.92</v>
       </c>
-      <c r="H14" t="n">
-        <v>19483.19</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-2260.76</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="H14">
+        <v>19483.189999999999</v>
+      </c>
+      <c r="I14">
+        <v>-2260.7600000000002</v>
+      </c>
+      <c r="J14">
         <v>104064.8</v>
       </c>
-      <c r="K14" t="n">
-        <v>4149.18176</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="K14">
+        <v>4149.1817600000004</v>
+      </c>
+      <c r="L14">
         <v>3893.91</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>5879.01</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>44105</v>
       </c>
-      <c r="B15" t="n">
-        <v>20420.42</v>
-      </c>
-      <c r="C15" t="n">
-        <v>24318.4</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="B15">
+        <v>20420.419999999998</v>
+      </c>
+      <c r="C15">
+        <v>24318.400000000001</v>
+      </c>
+      <c r="D15">
         <v>23824.59</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>28636.14</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>3623.8</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>44665.65</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>21504.23</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>3434.65</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>190131.7</v>
       </c>
-      <c r="K15" t="n">
-        <v>2964.63628</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="K15">
+        <v>2964.6362800000002</v>
+      </c>
+      <c r="L15">
         <v>3370.63</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>11502.15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>44136</v>
       </c>
-      <c r="B16" t="n">
-        <v>18791.33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>23268.72</v>
-      </c>
-      <c r="D16" t="n">
-        <v>39059.27</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="B16">
+        <v>18791.330000000002</v>
+      </c>
+      <c r="C16">
+        <v>23268.720000000001</v>
+      </c>
+      <c r="D16">
+        <v>39059.269999999997</v>
+      </c>
+      <c r="E16">
         <v>34579.64</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>8600.33</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>34509.39</v>
       </c>
-      <c r="H16" t="n">
-        <v>19483.58</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16">
+        <v>19483.580000000002</v>
+      </c>
+      <c r="I16">
         <v>9117.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>245783.3</v>
       </c>
-      <c r="K16" t="n">
-        <v>3066.67759</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="K16">
+        <v>3066.6775899999998</v>
+      </c>
+      <c r="L16">
         <v>3091.93</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>15968.93</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>44166</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>17689.55</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>22262.47</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>25498.69</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>28302.32</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>10018.51</v>
       </c>
-      <c r="G17" t="n">
-        <v>26371.28</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18426.31</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="G17">
+        <v>26371.279999999999</v>
+      </c>
+      <c r="H17">
+        <v>18426.310000000001</v>
+      </c>
+      <c r="I17">
         <v>11872.3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>201212.5</v>
       </c>
-      <c r="K17" t="n">
-        <v>3027.88837</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="K17">
+        <v>3027.8883700000001</v>
+      </c>
+      <c r="L17">
         <v>3039.11</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>11252.23</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>44197</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>15854.32</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>20479.63</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>23576.66</v>
       </c>
-      <c r="E18" t="n">
-        <v>22878.64</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18">
+        <v>22878.639999999999</v>
+      </c>
+      <c r="F18">
         <v>9796.36</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>22469.24</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>16735.7</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>14102.27</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>168360</v>
       </c>
-      <c r="K18" t="n">
-        <v>2706.99989</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K18">
+        <v>2706.9998900000001</v>
+      </c>
+      <c r="L18">
         <v>3343.89</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>10998.35</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>44228</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>15785.12</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>19807.02</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>30254.93</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>23122.37</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>9790.41</v>
       </c>
-      <c r="G19" t="n">
-        <v>19396.83</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="G19">
+        <v>19396.830000000002</v>
+      </c>
+      <c r="H19">
         <v>16538.68</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>12615.7</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>262292.3</v>
       </c>
-      <c r="K19" t="n">
-        <v>3413.56188</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="K19">
+        <v>3413.5618800000002</v>
+      </c>
+      <c r="L19">
         <v>2997.38</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>11345.45</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>44256</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>23170.2</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>28799.95</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>64437.17</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>40764.92</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>9008.93</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>26865.82</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>24194.06</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>30582.41</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>362265.5</v>
       </c>
-      <c r="K20" t="n">
-        <v>6146.36352</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4186.44</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="K20">
+        <v>6146.3635199999999</v>
+      </c>
+      <c r="L20">
+        <v>4186.4399999999996</v>
+      </c>
+      <c r="M20">
         <v>23892.89</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>44287</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>43070.62</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>55473.34</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>68716.53</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>50615.15</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>20324.63</v>
       </c>
-      <c r="G21" t="n">
-        <v>57688.96</v>
-      </c>
-      <c r="H21" t="n">
-        <v>48922.08</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="G21">
+        <v>57688.959999999999</v>
+      </c>
+      <c r="H21">
+        <v>48922.080000000002</v>
+      </c>
+      <c r="I21">
         <v>71171.55</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>354695.3</v>
       </c>
-      <c r="K21" t="n">
-        <v>20945.02469</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="K21">
+        <v>20945.024689999998</v>
+      </c>
+      <c r="L21">
         <v>14718.61</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>85410.25</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>44317</v>
       </c>
-      <c r="B22" t="n">
-        <v>132989.7</v>
-      </c>
-      <c r="C22" t="n">
-        <v>160798.52</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="B22">
+        <v>132989.70000000001</v>
+      </c>
+      <c r="C22">
+        <v>160798.51999999999</v>
+      </c>
+      <c r="D22">
         <v>135167.4</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>108378.85</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>95004.3</v>
       </c>
-      <c r="G22" t="n">
-        <v>147602.17</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="G22">
+        <v>147602.17000000001</v>
+      </c>
+      <c r="H22">
         <v>147722.5</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>154495.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>1121563</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>26218.2893</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>49056.9</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>389573.6</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>44348</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>126011.7</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>143679.1</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>91082.67</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>91196.23</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>44584.46</v>
       </c>
-      <c r="G23" t="n">
-        <v>76361.01</v>
-      </c>
-      <c r="H23" t="n">
-        <v>132249.2</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="G23">
+        <v>76361.009999999995</v>
+      </c>
+      <c r="H23">
+        <v>132249.20000000001</v>
+      </c>
+      <c r="I23">
         <v>39719.26</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>938540.9</v>
       </c>
-      <c r="K23" t="n">
-        <v>9046.69431</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="K23">
+        <v>9046.6943100000008</v>
+      </c>
+      <c r="L23">
         <v>19291.43</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>198585.1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>44378</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>44461.97</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>48501.08</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>65738.41</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>67214.17</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>17654.88</v>
       </c>
-      <c r="G24" t="n">
-        <v>19759.99</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="G24">
+        <v>19759.990000000002</v>
+      </c>
+      <c r="H24">
         <v>44921.3</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>1881.96</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>142674.1</v>
       </c>
-      <c r="K24" t="n">
-        <v>6737.0909</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="K24">
+        <v>6737.0909000000001</v>
+      </c>
+      <c r="L24">
         <v>7894.16</v>
       </c>
-      <c r="M24" t="n">
-        <v>19160.33</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="M24">
+        <v>19160.330000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>44409</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>45877.94</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>49807.72</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>21783.7</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>31540.93</v>
       </c>
-      <c r="F25" t="n">
-        <v>29174.88</v>
-      </c>
-      <c r="G25" t="n">
-        <v>22751.44</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="F25">
+        <v>29174.880000000001</v>
+      </c>
+      <c r="G25">
+        <v>22751.439999999999</v>
+      </c>
+      <c r="H25">
         <v>46358.44</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>42699.4</v>
       </c>
-      <c r="J25" t="n">
-        <v>272651.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8083.04968</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="J25">
+        <v>272651.09999999998</v>
+      </c>
+      <c r="K25">
+        <v>8083.0496800000001</v>
+      </c>
+      <c r="L25">
         <v>12865.16</v>
       </c>
-      <c r="M25" t="n">
-        <v>9625.79</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="M25">
+        <v>9625.7900000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>44440</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>56574.26</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>63445.64</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>67473.48</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>47322.68</v>
       </c>
-      <c r="F26" t="n">
-        <v>56764.96</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26">
+        <v>56764.959999999999</v>
+      </c>
+      <c r="G26">
         <v>71388.97</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>58421.36</v>
       </c>
-      <c r="I26" t="n">
-        <v>151458.3</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="I26">
+        <v>151458.29999999999</v>
+      </c>
+      <c r="J26">
         <v>857187.2</v>
       </c>
-      <c r="K26" t="n">
-        <v>7131.16528</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="K26">
+        <v>7131.1652800000002</v>
+      </c>
+      <c r="L26">
         <v>45238.26</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>17789.75</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>44470</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>48231.37</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>55015.43</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>67674.02</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>52664.61</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>31844.63</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>80077.58</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>50461.14</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>57475.47</v>
       </c>
-      <c r="J27" t="n">
-        <v>548939.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4795.314</v>
-      </c>
-      <c r="L27" t="n">
-        <v>17938.24</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="J27">
+        <v>548939.19999999995</v>
+      </c>
+      <c r="K27">
+        <v>4795.3140000000003</v>
+      </c>
+      <c r="L27">
+        <v>17938.240000000002</v>
+      </c>
+      <c r="M27">
         <v>42628.76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6809,1952 +6486,1952 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>43709</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>-5972.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>13917.43</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>30378.65</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>81862</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>9690.27</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>35037.79</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>-29910.87</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>408.09</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43739</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7133.3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4890.57</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>30800.04</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>63038</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>5324.02</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>23354.02</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-27112.55</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>579.38</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>544014.01</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>43770</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-11260.49</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>-6439.65</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>37455.54</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>40738</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>9458.27</v>
       </c>
-      <c r="G4" t="n">
-        <v>4622.65</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>4622.6499999999996</v>
+      </c>
+      <c r="H4">
         <v>-6442.05</v>
       </c>
-      <c r="I4" t="n">
-        <v>633.33</v>
+      <c r="I4">
+        <v>633.33000000000004</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>43800</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-28044.78</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>26431.59</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>27705.68</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>55394</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>13896.67</v>
       </c>
-      <c r="G5" t="n">
-        <v>2615.47</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>2615.4699999999998</v>
+      </c>
+      <c r="H5">
         <v>4634.12</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>490.32</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>43831</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-23203.66</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>20175.21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>11486.9</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>34562.15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-2612.38</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-5516.89</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>-31254.78</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>482.98</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>43862</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-18090.96</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>23997.95</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>10507.69</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>20429.55</v>
       </c>
-      <c r="F7" t="n">
-        <v>-5208.61</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7">
+        <v>-5208.6099999999997</v>
+      </c>
+      <c r="G7">
         <v>1576.76</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>-40545.83</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>369.53</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>43891</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-22812.71</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>14285.7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>8182.38</v>
       </c>
-      <c r="E8" t="n">
-        <v>29151.2</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>29151.200000000001</v>
+      </c>
+      <c r="F8">
         <v>-11038.98</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>6927.15</v>
       </c>
-      <c r="H8" t="n">
-        <v>-41513.44</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>-41513.440000000002</v>
+      </c>
+      <c r="I8">
         <v>409.59</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>43922</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-23695.68</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>23603.5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>23789.87</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>22452.34</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-12057.07</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5424.98</v>
       </c>
-      <c r="H9" t="n">
-        <v>-39894.56</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9">
+        <v>-39894.559999999998</v>
+      </c>
+      <c r="I9">
         <v>444.3</v>
       </c>
       <c r="J9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>43952</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-14131.06</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>-7980.42</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>25676.85</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>23526.47</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>2714.45</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>4971.91</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>-19799.64</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>335.01</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>43983</v>
       </c>
-      <c r="B11" t="n">
-        <v>-18979.65</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-19307.76</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11">
+        <v>-18979.650000000001</v>
+      </c>
+      <c r="C11">
+        <v>-19307.759999999998</v>
+      </c>
+      <c r="D11">
         <v>10002.74</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>26290.75</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-5669.53</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3549.45</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-58645.83</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>235.24</v>
       </c>
       <c r="J11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>44013</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-8886.49</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>36224.75</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>45767.62</v>
       </c>
-      <c r="E12" t="n">
-        <v>32983.2</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>32983.199999999997</v>
+      </c>
+      <c r="F12">
         <v>-15461.39</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>6589.64</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>-17556.64</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>1433.08</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>44044</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-10645.9</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>89890.09</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>25699.61</v>
       </c>
-      <c r="E13" t="n">
-        <v>78494.85</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>78494.850000000006</v>
+      </c>
+      <c r="F13">
         <v>5456.78</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>9873.77</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>-23595.79</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>604.77</v>
       </c>
       <c r="J13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>44075</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-4762.54</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>51881.15</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>31296.21</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>45143.53</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5853.76</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-2864.14</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>-41460.81</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>263.81</v>
       </c>
       <c r="J14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>44105</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-3075.73</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>26869.5</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>33652.71</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>26656.09</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-2555.91</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-2865.61</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>-6919.41</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>377.46</v>
       </c>
-      <c r="J15" t="n">
-        <v>645597.8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="J15">
+        <v>645597.80000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>44136</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-11409.68</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>25835.51</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>26752.78</v>
       </c>
-      <c r="E16" t="n">
-        <v>34562.08</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E16">
+        <v>34562.080000000002</v>
+      </c>
+      <c r="F16">
         <v>6273.81</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>5969.11</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>-5801.93</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>395.31</v>
       </c>
       <c r="J16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>44166</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-6389.24</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>27624.74</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>19707.7</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>22703.38</v>
       </c>
-      <c r="F17" t="n">
-        <v>2480.03</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17">
+        <v>2480.0300000000002</v>
+      </c>
+      <c r="G17">
         <v>-1407.81</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>5870.76</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>334.42</v>
       </c>
       <c r="J17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>44197</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-11244.42</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>17973.79</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>17187.61</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>37984.15</v>
       </c>
-      <c r="F18" t="n">
-        <v>-21323.44</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18">
+        <v>-21323.439999999999</v>
+      </c>
+      <c r="G18">
         <v>87.62</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>8217.74</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>337.2</v>
       </c>
       <c r="J18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>44228</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-11609.11</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>33918.86</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>3573.49</v>
       </c>
-      <c r="E19" t="n">
-        <v>34323.95</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E19">
+        <v>34323.949999999997</v>
+      </c>
+      <c r="F19">
         <v>-1840.41</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-4561.33</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>-31047</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>326.48</v>
       </c>
       <c r="J19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>44256</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-10646.89</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>17055.87</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>7613.11</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>51569.85</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-5824.41</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-7209.92</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>-52976.76</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>331.24</v>
       </c>
       <c r="J20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>44287</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-19992.5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>12370.4</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>14274.92</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>25081.57</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-6039.87</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-1426.01</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-37487.56</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>255.47</v>
       </c>
       <c r="J21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>44317</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-15347.74</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>-207.84</v>
       </c>
-      <c r="D22" t="n">
-        <v>20539.76</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>20539.759999999998</v>
+      </c>
+      <c r="E22">
         <v>28493.11</v>
       </c>
-      <c r="F22" t="n">
-        <v>4565.19</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22">
+        <v>4565.1899999999996</v>
+      </c>
+      <c r="G22">
         <v>1231.02</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>-23880.74</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>382.02</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>44348</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-16179.09</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>-30350.67</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>15162.82</v>
       </c>
-      <c r="E23" t="n">
-        <v>31625.2</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="F23">
         <v>-7200.7</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>6422.99</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>-52891.23</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>214.02</v>
       </c>
       <c r="J23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>44378</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-23987.86</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>36603.79</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>27949.17</v>
       </c>
-      <c r="E24" t="n">
-        <v>76610.65</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24">
+        <v>76610.649999999994</v>
+      </c>
+      <c r="F24">
         <v>-7250.56</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>14911.22</v>
       </c>
-      <c r="H24" t="n">
-        <v>-21853.2</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="H24">
+        <v>-21853.200000000001</v>
+      </c>
+      <c r="I24">
         <v>243.93</v>
       </c>
       <c r="J24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>44409</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-16427.38</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>51290.8</v>
       </c>
-      <c r="D25" t="n">
-        <v>36878.77</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>36878.769999999997</v>
+      </c>
+      <c r="E25">
         <v>80701.75</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>3330.5</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>13845.92</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>-13053.47</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>447.68</v>
       </c>
       <c r="J25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>44440</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-11291.31</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>69928.5</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>23213.83</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>85462.81</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-2950.71</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>6748.67</v>
       </c>
-      <c r="H26" t="n">
-        <v>-34990.12</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="H26">
+        <v>-34990.120000000003</v>
+      </c>
+      <c r="I26">
         <v>1762.54</v>
       </c>
       <c r="J26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>44470</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-12591.95</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>16161.18</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>18519.07</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>21389.06</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>11360.07</v>
       </c>
-      <c r="G27" t="n">
-        <v>2300.74</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="G27">
+        <v>2300.7399999999998</v>
+      </c>
+      <c r="H27">
         <v>-8607.5</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>306.45</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>586310.79</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>44501</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>3962.03</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>73860.34</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>24562.22</v>
       </c>
-      <c r="E28" t="n">
-        <v>26816.08</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E28">
+        <v>26816.080000000002</v>
+      </c>
+      <c r="F28">
         <v>14429.1</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-1002.73</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>-2012.77</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>558.36</v>
       </c>
       <c r="J28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>44531</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-9899.61</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>23167.24</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>7137.6</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>19346.43</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>24633.08</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-6031.21</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>-8762.99</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>684.11</v>
       </c>
       <c r="J29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>44562</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-7219.96</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>11415.91</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>12538.94</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>33529</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>2621.72</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>10520.98</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>-12491.09</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>612</v>
       </c>
       <c r="J30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>44593</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-21630.13</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>39258.75</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>19363.43</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>36826</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>4183.96</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>4376.93</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>-25948.11</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>415</v>
       </c>
       <c r="J31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>44621</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-11784.01</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>-8489.02</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-3079.57</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>37596</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-14076.46</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>6079.39</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>-93807.4</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>323</v>
       </c>
       <c r="J32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>44652</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-21491.86</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>-15768.3</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>23900.84</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>32880</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>14180.46</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>9891.86</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>-6905.61</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>420</v>
       </c>
       <c r="J33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>44682</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-17046.14</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-19161.46</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-2817.26</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>32238</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>104.55</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>4984.93</v>
       </c>
-      <c r="H34" t="n">
-        <v>-18245.94</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="H34">
+        <v>-18245.939999999999</v>
+      </c>
+      <c r="I34">
         <v>346</v>
       </c>
       <c r="J34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>44713</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-19310.96</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>-26510.23</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>10724.48</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>36676</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-740.51</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>10593.28</v>
       </c>
-      <c r="H35" t="n">
-        <v>-68309.26</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="H35">
+        <v>-68309.259999999995</v>
+      </c>
+      <c r="I35">
         <v>251</v>
       </c>
       <c r="J35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>44743</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-9775.31</v>
       </c>
-      <c r="C36" t="n">
-        <v>9970.63</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>9970.6299999999992</v>
+      </c>
+      <c r="D36">
         <v>19235.73</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>43541</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-12226.79</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>14384.22</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>-6889.73</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>282</v>
       </c>
       <c r="J36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>44774</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-6121.14</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>54512.73</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>26016.25</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>57992</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>10574.87</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>16934.47</v>
       </c>
-      <c r="H37" t="n">
-        <v>-5031.02</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="H37">
+        <v>-5031.0200000000004</v>
+      </c>
+      <c r="I37">
         <v>348</v>
       </c>
       <c r="J37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>44805</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-5894.69</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>85735.3</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>13279.96</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>53901</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>5571.26</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>15024.83</v>
       </c>
-      <c r="H38" t="n">
-        <v>-18394.31</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="H38">
+        <v>-18394.310000000001</v>
+      </c>
+      <c r="I38">
         <v>1036</v>
       </c>
       <c r="J38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>44835</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>9566.43</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>10550.47</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>16037.32</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>57181</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>13280.39</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>14735.38</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>-12138.94</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>393</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>739026.05</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>44866</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-5666.19</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>16733.23</v>
       </c>
-      <c r="D40" t="n">
-        <v>9028.38</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>9028.3799999999992</v>
+      </c>
+      <c r="E40">
         <v>27547</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>13137.82</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>2853.14</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>-4766.96</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>277</v>
       </c>
       <c r="J40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>44896</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-1670.61</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>8440.5</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>18424.97</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>47347</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>23356.19</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>15691.12</v>
       </c>
-      <c r="H41" t="n">
-        <v>9100.72</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="H41">
+        <v>9100.7199999999993</v>
+      </c>
+      <c r="I41">
         <v>300</v>
       </c>
       <c r="J41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>44927</v>
       </c>
-      <c r="B42" t="n">
-        <v>-21864.4</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42">
+        <v>-21864.400000000001</v>
+      </c>
+      <c r="C42">
         <v>26251.51</v>
       </c>
-      <c r="D42" t="n">
-        <v>17365.19</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>17365.189999999999</v>
+      </c>
+      <c r="E42">
         <v>46558.35</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>3458.52</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>15801.3</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>-5602.39</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>328</v>
       </c>
       <c r="J42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>44958</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-7545.24</v>
       </c>
-      <c r="C43" t="n">
-        <v>44189.28</v>
-      </c>
-      <c r="D43" t="n">
-        <v>9155.55</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="C43">
+        <v>44189.279999999999</v>
+      </c>
+      <c r="D43">
+        <v>9155.5499999999993</v>
+      </c>
+      <c r="E43">
         <v>45765.02</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>8029.07</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>6304.52</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>-28041.53</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>310</v>
       </c>
       <c r="J43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>44986</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-21530.83</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>9310.31</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>2760.35</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>47731.07</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-1276.25</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>6544.04</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>-67565.97</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>249</v>
       </c>
       <c r="J44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>45017</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-18509.3</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>-8987.4</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>12686.98</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>35085.39</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-9309.64</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>9727.36</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>-6330.45</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>249</v>
       </c>
       <c r="J45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>45047</v>
       </c>
-      <c r="B46" t="n">
-        <v>-10435.12</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46">
+        <v>-10435.120000000001</v>
+      </c>
+      <c r="C46">
         <v>-13046.18</v>
       </c>
-      <c r="D46" t="n">
-        <v>20550.42</v>
-      </c>
-      <c r="E46" t="n">
-        <v>38365.6</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="D46">
+        <v>20550.419999999998</v>
+      </c>
+      <c r="E46">
+        <v>38365.599999999999</v>
+      </c>
+      <c r="F46">
         <v>7356.45</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>9396.17</v>
       </c>
-      <c r="H46" t="n">
-        <v>-10473.22</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="H46">
+        <v>-10473.219999999999</v>
+      </c>
+      <c r="I46">
         <v>475</v>
       </c>
       <c r="J46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45078</v>
       </c>
-      <c r="B47" t="n">
-        <v>-18403.49</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47">
+        <v>-18403.490000000002</v>
+      </c>
+      <c r="C47">
         <v>-10624.94</v>
       </c>
-      <c r="D47" t="n">
-        <v>19359.94</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>19359.939999999999</v>
+      </c>
+      <c r="E47">
         <v>26921.15</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>2274.06</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>1322.31</v>
       </c>
-      <c r="H47" t="n">
-        <v>-37319.13</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="H47">
+        <v>-37319.129999999997</v>
+      </c>
+      <c r="I47">
         <v>251</v>
       </c>
       <c r="J47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>45108</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-13568.73</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>18903.91</v>
       </c>
-      <c r="D48" t="n">
-        <v>17588.26</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>17588.259999999998</v>
+      </c>
+      <c r="E48">
         <v>61150.55</v>
       </c>
-      <c r="F48" t="n">
-        <v>-2512.45</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48">
+        <v>-2512.4499999999998</v>
+      </c>
+      <c r="G48">
         <v>27613.71</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>-15563.41</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>235</v>
       </c>
       <c r="J48" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>45139</v>
       </c>
-      <c r="B49" t="n">
-        <v>-16631.42</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49">
+        <v>-16631.419999999998</v>
+      </c>
+      <c r="C49">
         <v>55300.89</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>15521.93</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>58932.45</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-7430.23</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>14490.18</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>-19816.96</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>205</v>
       </c>
       <c r="J49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>45170</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-16038.95</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>28279.77</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>19143.62</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>44190.05</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>6700.01</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>11451.72</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>-16256.64</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>133</v>
       </c>
       <c r="J50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>45200</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-7345.29</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>53033.72</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>34035.25</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>64528.03</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-1084.53</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>8505.11</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>-2625.77</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>483</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>694141.14</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>45231</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-13474.74</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>12991.93</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>10863.57</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>28195.35</v>
       </c>
-      <c r="F52" t="n">
-        <v>296.15</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="F52">
+        <v>296.14999999999998</v>
+      </c>
+      <c r="G52">
         <v>5892.31</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>13455.39</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>431</v>
       </c>
       <c r="J52" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>45261</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-12944.09</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>14189.18</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>21698.54</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>28513.1</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-1249.93</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>6086.96</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>22410.85</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>380</v>
       </c>
       <c r="J53" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>45292</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-31790.57</v>
       </c>
-      <c r="C54" t="n">
-        <v>45404.48</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54">
+        <v>45404.480000000003</v>
+      </c>
+      <c r="D54">
         <v>26235</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>43945.4</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>1651.22</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>7436.39</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>-23151.98</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>682.32</v>
       </c>
       <c r="J54" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>45323</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-20499.46</v>
       </c>
-      <c r="C55" t="n">
-        <v>35349.55</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55">
+        <v>35349.550000000003</v>
+      </c>
+      <c r="D55">
         <v>9391.41</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>45429.65</v>
       </c>
-      <c r="F55" t="n">
-        <v>-10051.95</v>
-      </c>
-      <c r="G55" t="n">
+      <c r="F55">
+        <v>-10051.950000000001</v>
+      </c>
+      <c r="G55">
         <v>4043.57</v>
       </c>
-      <c r="H55" t="n">
-        <v>-41479.92</v>
-      </c>
-      <c r="I55" t="n">
+      <c r="H55">
+        <v>-41479.919999999998</v>
+      </c>
+      <c r="I55">
         <v>662.69</v>
       </c>
       <c r="J55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>45352</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-15448.75</v>
       </c>
-      <c r="C56" t="n">
-        <v>-18663.9</v>
-      </c>
-      <c r="D56" t="n">
-        <v>17882.17</v>
-      </c>
-      <c r="E56" t="n">
-        <v>49516.8</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="C56">
+        <v>-18663.900000000001</v>
+      </c>
+      <c r="D56">
+        <v>17882.169999999998</v>
+      </c>
+      <c r="E56">
+        <v>49516.800000000003</v>
+      </c>
+      <c r="F56">
         <v>-4318.62</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>12891.08</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>-21347.54</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>458.78</v>
       </c>
       <c r="J56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>45383</v>
       </c>
-      <c r="B57" t="n">
-        <v>-17709.4</v>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57">
+        <v>-17709.400000000001</v>
+      </c>
+      <c r="C57">
         <v>19947.13</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>17897.77</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>47647.9</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-9561.36</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>15703.62</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>-16941.54</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>502.42</v>
       </c>
       <c r="J57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>45413</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-5794.55</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>8265.35</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>12906.5</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>41386.65</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>3668.08</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>9243.6</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>-34389.43</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>716.24</v>
       </c>
       <c r="J58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>45444</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-15855.95</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>-21178.33</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>18426.27</v>
       </c>
-      <c r="E59" t="n">
-        <v>35523.2</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="E59">
+        <v>35523.199999999997</v>
+      </c>
+      <c r="F59">
         <v>-4540.53</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>6949.03</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>-32278.47</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>446.49</v>
       </c>
       <c r="J59" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>45474</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-23911.19</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>31188.34</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>20150.27</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>38740.1</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-5445.52</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>12543.86</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>-28619.85</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>534.35</v>
       </c>
       <c r="J60" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>45505</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-11929.89</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>50125.75</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>22540.13</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>56475</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-6202.98</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>14609.82</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>-29174.46</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>353.26</v>
       </c>
       <c r="J61" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>45536</v>
       </c>
-      <c r="B62" t="n">
-        <v>-17913.94</v>
-      </c>
-      <c r="C62" t="n">
+      <c r="B62">
+        <v>-17913.939999999999</v>
+      </c>
+      <c r="C62">
         <v>43797.34</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>13627</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>43928.75</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-5132.99</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>13174.12</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>-22625.58</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>835.85</v>
       </c>
       <c r="J62" t="s">
@@ -8763,6 +8440,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>